--- a/tabular/Ind_miss.xlsx
+++ b/tabular/Ind_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathryncampbell/Dropbox/GLUE/Metadata/Indian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030EBC7-BA2E-064D-933D-F5E9C9B96B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD049700-545A-2647-833A-D7F71394904E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="224">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -807,167 +810,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -993,26 +836,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1061,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{366CB5B0-DACB-D14D-B708-5305FFBF8B28}" name="Table1" displayName="Table1" ref="Q1:AG64" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="Q1:AG64" xr:uid="{F1904DD6-C0FF-D14A-AB81-6C06FA9F581C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{366CB5B0-DACB-D14D-B708-5305FFBF8B28}" name="Table1" displayName="Table1" ref="P1:AF64" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="P1:AF64" xr:uid="{F1904DD6-C0FF-D14A-AB81-6C06FA9F581C}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{486C82FC-36BA-8742-8549-C704E6A7E28E}" name="country_edit"/>
     <tableColumn id="2" xr3:uid="{4BE4E34E-B291-CB4C-90D6-7F1F5ADBA5FF}" name="Country_update"/>
@@ -1070,7 +893,7 @@
     <tableColumn id="4" xr3:uid="{323DDA63-EFEB-2E42-A864-55F5417F7908}" name="place_update"/>
     <tableColumn id="5" xr3:uid="{68EDBFBE-0075-C94A-AB80-24E3A6C4C655}" name="Collection.year_edit"/>
     <tableColumn id="6" xr3:uid="{94D1BA82-1921-3F4B-B930-3C56A5A2542F}" name="Collection.year_update"/>
-    <tableColumn id="7" xr3:uid="{58BC4D3C-84EE-A349-A2E2-466ABF66C48A}" name="earliest.collection_edit" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{58BC4D3C-84EE-A349-A2E2-466ABF66C48A}" name="earliest.collection_edit" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{4878DAA8-AE5A-454A-8309-EC11392F5091}" name="earliest.collection_update"/>
     <tableColumn id="9" xr3:uid="{0A200F8C-90EE-C64B-BB85-D4CC9C76A612}" name="latest.collection_edit"/>
     <tableColumn id="10" xr3:uid="{23387222-E827-4842-994C-36FA1BACF554}" name="latest.collection_update"/>
@@ -1407,33 +1230,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="AG1" sqref="A1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="23" width="21.6640625" customWidth="1"/>
-    <col min="24" max="24" width="24" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" customWidth="1"/>
-    <col min="26" max="26" width="22.5" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
-    <col min="28" max="28" width="13.1640625" customWidth="1"/>
-    <col min="29" max="29" width="18.1640625" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" customWidth="1"/>
-    <col min="31" max="31" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="22" width="21.6640625" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" customWidth="1"/>
+    <col min="25" max="25" width="22.5" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,59 +1302,62 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="Q1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="AC1" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1577,59 +1403,59 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T2" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V2" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y2">
+        <v>219</v>
+      </c>
+      <c r="X2">
         <v>2003</v>
       </c>
-      <c r="Z2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="Y2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AB2" t="s">
-        <v>220</v>
+      <c r="AA2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>222</v>
       </c>
       <c r="AD2" t="s">
         <v>222</v>
       </c>
       <c r="AE2" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1675,59 +1501,59 @@
       <c r="O3" t="s">
         <v>26</v>
       </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R3" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T3" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V3" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y3">
+        <v>219</v>
+      </c>
+      <c r="X3">
         <v>2003</v>
       </c>
-      <c r="Z3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA3" s="5" t="s">
+      <c r="Y3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
-        <v>220</v>
+      <c r="AA3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>222</v>
       </c>
       <c r="AD3" t="s">
         <v>222</v>
       </c>
       <c r="AE3" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1773,59 +1599,59 @@
       <c r="O4" t="s">
         <v>28</v>
       </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R4" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T4" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V4" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y4">
+        <v>219</v>
+      </c>
+      <c r="X4">
         <v>2003</v>
       </c>
-      <c r="Z4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA4" s="5" t="s">
+      <c r="Y4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB4" t="s">
-        <v>220</v>
+      <c r="AA4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>222</v>
       </c>
       <c r="AD4" t="s">
         <v>222</v>
       </c>
       <c r="AE4" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1871,59 +1697,59 @@
       <c r="O5" t="s">
         <v>30</v>
       </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R5" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V5" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y5">
+        <v>219</v>
+      </c>
+      <c r="X5">
         <v>2003</v>
       </c>
-      <c r="Z5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="Y5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z5" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AB5" t="s">
-        <v>220</v>
+      <c r="AA5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>222</v>
       </c>
       <c r="AD5" t="s">
         <v>222</v>
       </c>
       <c r="AE5" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1969,59 +1795,59 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R6" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T6" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V6" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y6">
+        <v>219</v>
+      </c>
+      <c r="X6">
         <v>2003</v>
       </c>
-      <c r="Z6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA6" s="5" t="s">
+      <c r="Y6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" t="s">
-        <v>220</v>
+      <c r="AA6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>222</v>
       </c>
       <c r="AD6" t="s">
         <v>222</v>
       </c>
       <c r="AE6" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2067,59 +1893,59 @@
       <c r="O7" t="s">
         <v>34</v>
       </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y7">
+        <v>219</v>
+      </c>
+      <c r="X7">
         <v>2003</v>
       </c>
-      <c r="Z7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA7" s="5" t="s">
+      <c r="Y7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AB7" t="s">
-        <v>220</v>
+      <c r="AA7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>222</v>
       </c>
       <c r="AD7" t="s">
         <v>222</v>
       </c>
       <c r="AE7" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="AG7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2165,56 +1991,56 @@
       <c r="O8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>211</v>
       </c>
+      <c r="Q8" t="s">
+        <v>220</v>
+      </c>
       <c r="R8" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U8" s="5">
+        <v>219</v>
+      </c>
+      <c r="T8" s="5">
         <v>1989</v>
       </c>
-      <c r="V8" t="s">
-        <v>220</v>
-      </c>
-      <c r="W8" s="5">
+      <c r="U8" t="s">
+        <v>220</v>
+      </c>
+      <c r="V8" s="5">
         <v>1989</v>
       </c>
-      <c r="X8" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y8" s="9">
+      <c r="W8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X8" s="9">
         <v>1989</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" t="s">
         <v>221</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB8" t="s">
-        <v>220</v>
+      <c r="AA8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>222</v>
       </c>
       <c r="AD8" t="s">
         <v>222</v>
       </c>
       <c r="AE8" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2260,56 +2086,56 @@
       <c r="O9" t="s">
         <v>20</v>
       </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R9" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T9" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V9" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y9">
+        <v>219</v>
+      </c>
+      <c r="X9">
         <v>2001</v>
       </c>
+      <c r="Y9" t="s">
+        <v>219</v>
+      </c>
       <c r="Z9" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>222</v>
       </c>
       <c r="AD9" t="s">
         <v>222</v>
       </c>
       <c r="AE9" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2355,56 +2181,56 @@
       <c r="O10" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="Q10" t="s">
+        <v>220</v>
+      </c>
       <c r="R10" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" t="s">
-        <v>219</v>
-      </c>
-      <c r="U10" s="5">
+        <v>219</v>
+      </c>
+      <c r="T10" s="5">
         <v>1995</v>
       </c>
-      <c r="V10" t="s">
-        <v>220</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="U10" t="s">
+        <v>220</v>
+      </c>
+      <c r="V10" s="5">
         <v>1995</v>
       </c>
-      <c r="X10" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y10" s="9">
+      <c r="W10" t="s">
+        <v>220</v>
+      </c>
+      <c r="X10" s="9">
         <v>1995</v>
       </c>
+      <c r="Y10" t="s">
+        <v>221</v>
+      </c>
       <c r="Z10" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>222</v>
       </c>
       <c r="AD10" t="s">
         <v>222</v>
       </c>
       <c r="AE10" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2450,56 +2276,56 @@
       <c r="O11" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="Q11" t="s">
+        <v>220</v>
+      </c>
       <c r="R11" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s">
-        <v>219</v>
-      </c>
-      <c r="U11" s="5">
+        <v>219</v>
+      </c>
+      <c r="T11" s="5">
         <v>1986</v>
       </c>
-      <c r="V11" t="s">
-        <v>220</v>
-      </c>
-      <c r="W11" s="5">
+      <c r="U11" t="s">
+        <v>220</v>
+      </c>
+      <c r="V11" s="5">
         <v>1986</v>
       </c>
-      <c r="X11" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y11" s="9">
+      <c r="W11" t="s">
+        <v>220</v>
+      </c>
+      <c r="X11" s="9">
         <v>1986</v>
       </c>
+      <c r="Y11" t="s">
+        <v>221</v>
+      </c>
       <c r="Z11" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>222</v>
       </c>
       <c r="AD11" t="s">
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2545,56 +2371,56 @@
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="Q12" t="s">
+        <v>220</v>
+      </c>
       <c r="R12" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s">
-        <v>219</v>
-      </c>
-      <c r="U12" s="5">
+        <v>219</v>
+      </c>
+      <c r="T12" s="5">
         <v>1986</v>
       </c>
-      <c r="V12" t="s">
-        <v>220</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="U12" t="s">
+        <v>220</v>
+      </c>
+      <c r="V12" s="5">
         <v>1986</v>
       </c>
-      <c r="X12" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y12" s="9">
+      <c r="W12" t="s">
+        <v>220</v>
+      </c>
+      <c r="X12" s="9">
         <v>1986</v>
       </c>
+      <c r="Y12" t="s">
+        <v>221</v>
+      </c>
       <c r="Z12" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>222</v>
       </c>
       <c r="AD12" t="s">
         <v>222</v>
       </c>
       <c r="AE12" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2640,56 +2466,56 @@
       <c r="O13" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="Q13" t="s">
+        <v>220</v>
+      </c>
       <c r="R13" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s">
-        <v>219</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s">
-        <v>219</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y13">
+        <v>219</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X13">
         <v>2002</v>
       </c>
-      <c r="Z13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA13" s="5" t="s">
+      <c r="Y13" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB13" t="s">
-        <v>220</v>
+      <c r="AA13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>222</v>
       </c>
       <c r="AD13" t="s">
         <v>222</v>
       </c>
       <c r="AE13" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="AF13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2735,56 +2561,56 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R14" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="5">
+        <v>219</v>
+      </c>
+      <c r="T14" s="5">
         <v>1986</v>
       </c>
-      <c r="V14" t="s">
-        <v>220</v>
-      </c>
-      <c r="W14" s="5">
+      <c r="U14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V14" s="5">
         <v>1986</v>
       </c>
-      <c r="X14" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y14" s="9">
+      <c r="W14" t="s">
+        <v>220</v>
+      </c>
+      <c r="X14" s="9">
         <v>1986</v>
       </c>
+      <c r="Y14" t="s">
+        <v>221</v>
+      </c>
       <c r="Z14" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>222</v>
       </c>
       <c r="AD14" t="s">
         <v>222</v>
       </c>
       <c r="AE14" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2830,56 +2656,56 @@
       <c r="O15" t="s">
         <v>65</v>
       </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
       <c r="Q15" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R15" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" t="s">
-        <v>219</v>
-      </c>
-      <c r="U15" s="5">
+        <v>219</v>
+      </c>
+      <c r="T15" s="5">
         <v>2001</v>
       </c>
-      <c r="V15" t="s">
-        <v>220</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="U15" t="s">
+        <v>220</v>
+      </c>
+      <c r="V15" s="5">
         <v>2001</v>
       </c>
-      <c r="X15" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y15" s="9">
+      <c r="W15" t="s">
+        <v>220</v>
+      </c>
+      <c r="X15" s="9">
         <v>2001</v>
       </c>
+      <c r="Y15" t="s">
+        <v>221</v>
+      </c>
       <c r="Z15" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="AA15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>222</v>
       </c>
       <c r="AD15" t="s">
         <v>222</v>
       </c>
       <c r="AE15" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2925,56 +2751,56 @@
       <c r="O16" t="s">
         <v>67</v>
       </c>
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R16" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" t="s">
-        <v>219</v>
-      </c>
-      <c r="U16" s="5">
+        <v>219</v>
+      </c>
+      <c r="T16" s="5">
         <v>2001</v>
       </c>
-      <c r="V16" t="s">
-        <v>220</v>
-      </c>
-      <c r="W16" s="5">
+      <c r="U16" t="s">
+        <v>220</v>
+      </c>
+      <c r="V16" s="5">
         <v>2001</v>
       </c>
-      <c r="X16" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y16" s="9">
+      <c r="W16" t="s">
+        <v>220</v>
+      </c>
+      <c r="X16" s="9">
         <v>2001</v>
       </c>
+      <c r="Y16" t="s">
+        <v>221</v>
+      </c>
       <c r="Z16" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>222</v>
       </c>
       <c r="AD16" t="s">
         <v>222</v>
       </c>
       <c r="AE16" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3020,56 +2846,56 @@
       <c r="O17" t="s">
         <v>69</v>
       </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R17" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" t="s">
-        <v>219</v>
-      </c>
-      <c r="U17" s="5">
+        <v>219</v>
+      </c>
+      <c r="T17" s="5">
         <v>2001</v>
       </c>
-      <c r="V17" t="s">
-        <v>220</v>
-      </c>
-      <c r="W17" s="5">
+      <c r="U17" t="s">
+        <v>220</v>
+      </c>
+      <c r="V17" s="5">
         <v>2001</v>
       </c>
-      <c r="X17" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y17" s="9">
+      <c r="W17" t="s">
+        <v>220</v>
+      </c>
+      <c r="X17" s="9">
         <v>2001</v>
       </c>
+      <c r="Y17" t="s">
+        <v>221</v>
+      </c>
       <c r="Z17" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>222</v>
       </c>
       <c r="AD17" t="s">
         <v>222</v>
       </c>
       <c r="AE17" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -3115,56 +2941,56 @@
       <c r="O18" t="s">
         <v>71</v>
       </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R18" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s">
-        <v>219</v>
-      </c>
-      <c r="U18" s="5">
+        <v>219</v>
+      </c>
+      <c r="T18" s="5">
         <v>2001</v>
       </c>
-      <c r="V18" t="s">
-        <v>220</v>
-      </c>
-      <c r="W18" s="5">
+      <c r="U18" t="s">
+        <v>220</v>
+      </c>
+      <c r="V18" s="5">
         <v>2001</v>
       </c>
-      <c r="X18" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y18" s="9">
+      <c r="W18" t="s">
+        <v>220</v>
+      </c>
+      <c r="X18" s="9">
         <v>2001</v>
       </c>
+      <c r="Y18" t="s">
+        <v>221</v>
+      </c>
       <c r="Z18" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>222</v>
       </c>
       <c r="AD18" t="s">
         <v>222</v>
       </c>
       <c r="AE18" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -3210,59 +3036,59 @@
       <c r="O19" t="s">
         <v>74</v>
       </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R19" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T19" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s">
-        <v>219</v>
-      </c>
-      <c r="W19" s="5">
+        <v>219</v>
+      </c>
+      <c r="V19" s="5">
         <v>1999</v>
       </c>
-      <c r="X19" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y19" s="9">
+      <c r="W19" t="s">
+        <v>220</v>
+      </c>
+      <c r="X19" s="9">
         <v>2001</v>
       </c>
+      <c r="Y19" t="s">
+        <v>221</v>
+      </c>
       <c r="Z19" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>222</v>
       </c>
       <c r="AD19" t="s">
         <v>222</v>
       </c>
       <c r="AE19" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF19" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -3308,56 +3134,56 @@
       <c r="O20" t="s">
         <v>76</v>
       </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R20" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s">
-        <v>219</v>
-      </c>
-      <c r="U20" s="5">
+        <v>219</v>
+      </c>
+      <c r="T20" s="5">
         <v>2001</v>
       </c>
-      <c r="V20" t="s">
-        <v>220</v>
-      </c>
-      <c r="W20" s="5">
+      <c r="U20" t="s">
+        <v>220</v>
+      </c>
+      <c r="V20" s="5">
         <v>2001</v>
       </c>
-      <c r="X20" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y20" s="9">
+      <c r="W20" t="s">
+        <v>220</v>
+      </c>
+      <c r="X20" s="9">
         <v>2001</v>
       </c>
+      <c r="Y20" t="s">
+        <v>221</v>
+      </c>
       <c r="Z20" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>222</v>
       </c>
       <c r="AD20" t="s">
         <v>222</v>
       </c>
       <c r="AE20" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3403,56 +3229,56 @@
       <c r="O21" t="s">
         <v>79</v>
       </c>
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
       <c r="Q21" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R21" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s">
-        <v>219</v>
-      </c>
-      <c r="U21" s="5">
+        <v>219</v>
+      </c>
+      <c r="T21" s="5">
         <v>2001</v>
       </c>
-      <c r="V21" t="s">
-        <v>220</v>
-      </c>
-      <c r="W21" s="5">
+      <c r="U21" t="s">
+        <v>220</v>
+      </c>
+      <c r="V21" s="5">
         <v>2001</v>
       </c>
-      <c r="X21" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y21" s="9">
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" s="9">
         <v>2001</v>
       </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
       <c r="Z21" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>222</v>
       </c>
       <c r="AD21" t="s">
         <v>222</v>
       </c>
       <c r="AE21" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3498,56 +3324,56 @@
       <c r="O22" t="s">
         <v>81</v>
       </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
       <c r="Q22" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R22" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" t="s">
-        <v>219</v>
-      </c>
-      <c r="U22" s="5">
+        <v>219</v>
+      </c>
+      <c r="T22" s="5">
         <v>2001</v>
       </c>
-      <c r="V22" t="s">
-        <v>220</v>
-      </c>
-      <c r="W22" s="5">
+      <c r="U22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V22" s="5">
         <v>2001</v>
       </c>
-      <c r="X22" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y22" s="9">
+      <c r="W22" t="s">
+        <v>220</v>
+      </c>
+      <c r="X22" s="9">
         <v>2001</v>
       </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
       <c r="Z22" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>222</v>
       </c>
       <c r="AD22" t="s">
         <v>222</v>
       </c>
       <c r="AE22" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3593,59 +3419,59 @@
       <c r="O23" t="s">
         <v>83</v>
       </c>
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q23" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R23" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T23" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s">
-        <v>20</v>
-      </c>
-      <c r="V23" t="s">
-        <v>219</v>
-      </c>
-      <c r="W23" s="5">
+        <v>219</v>
+      </c>
+      <c r="V23" s="5">
         <v>1999</v>
       </c>
-      <c r="X23" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y23" s="9">
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" s="9">
         <v>2001</v>
       </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
       <c r="Z23" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>222</v>
       </c>
       <c r="AD23" t="s">
         <v>222</v>
       </c>
       <c r="AE23" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF23" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -3691,56 +3517,56 @@
       <c r="O24" t="s">
         <v>85</v>
       </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R24" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" t="s">
-        <v>219</v>
-      </c>
-      <c r="U24" s="5">
+        <v>219</v>
+      </c>
+      <c r="T24" s="5">
         <v>2001</v>
       </c>
-      <c r="V24" t="s">
-        <v>220</v>
-      </c>
-      <c r="W24" s="5">
+      <c r="U24" t="s">
+        <v>220</v>
+      </c>
+      <c r="V24" s="5">
         <v>2001</v>
       </c>
-      <c r="X24" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y24" s="9">
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" s="9">
         <v>2001</v>
       </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
       <c r="Z24" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>222</v>
       </c>
       <c r="AD24" t="s">
         <v>222</v>
       </c>
       <c r="AE24" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -3786,56 +3612,56 @@
       <c r="O25" t="s">
         <v>87</v>
       </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R25" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" t="s">
-        <v>219</v>
-      </c>
-      <c r="U25" s="5">
+        <v>219</v>
+      </c>
+      <c r="T25" s="5">
         <v>2001</v>
       </c>
-      <c r="V25" t="s">
-        <v>220</v>
-      </c>
-      <c r="W25" s="5">
+      <c r="U25" t="s">
+        <v>220</v>
+      </c>
+      <c r="V25" s="5">
         <v>2001</v>
       </c>
-      <c r="X25" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y25" s="9">
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" s="9">
         <v>2001</v>
       </c>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
       <c r="Z25" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="AA25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>222</v>
       </c>
       <c r="AD25" t="s">
         <v>222</v>
       </c>
       <c r="AE25" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3881,56 +3707,56 @@
       <c r="O26" t="s">
         <v>89</v>
       </c>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
       <c r="Q26" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R26" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" t="s">
-        <v>219</v>
-      </c>
-      <c r="U26" s="5">
+        <v>219</v>
+      </c>
+      <c r="T26" s="5">
         <v>2001</v>
       </c>
-      <c r="V26" t="s">
-        <v>220</v>
-      </c>
-      <c r="W26" s="5">
+      <c r="U26" t="s">
+        <v>220</v>
+      </c>
+      <c r="V26" s="5">
         <v>2001</v>
       </c>
-      <c r="X26" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y26" s="9">
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" s="9">
         <v>2001</v>
       </c>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
       <c r="Z26" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>222</v>
       </c>
       <c r="AD26" t="s">
         <v>222</v>
       </c>
       <c r="AE26" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -3976,56 +3802,56 @@
       <c r="O27" t="s">
         <v>92</v>
       </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
       <c r="Q27" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R27" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" t="s">
-        <v>219</v>
-      </c>
-      <c r="U27" s="5">
+        <v>219</v>
+      </c>
+      <c r="T27" s="5">
         <v>2001</v>
       </c>
-      <c r="V27" t="s">
-        <v>220</v>
-      </c>
-      <c r="W27" s="5">
+      <c r="U27" t="s">
+        <v>220</v>
+      </c>
+      <c r="V27" s="5">
         <v>2001</v>
       </c>
-      <c r="X27" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y27" s="9">
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" s="9">
         <v>2001</v>
       </c>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
       <c r="Z27" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="AA27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>222</v>
       </c>
       <c r="AD27" t="s">
         <v>222</v>
       </c>
       <c r="AE27" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -4071,56 +3897,56 @@
       <c r="O28" t="s">
         <v>95</v>
       </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
       <c r="Q28" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R28" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" t="s">
-        <v>219</v>
-      </c>
-      <c r="U28" s="5">
+        <v>219</v>
+      </c>
+      <c r="T28" s="5">
         <v>2001</v>
       </c>
-      <c r="V28" t="s">
-        <v>220</v>
-      </c>
-      <c r="W28" s="5">
+      <c r="U28" t="s">
+        <v>220</v>
+      </c>
+      <c r="V28" s="5">
         <v>2001</v>
       </c>
-      <c r="X28" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y28" s="9">
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" s="9">
         <v>2001</v>
       </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
       <c r="Z28" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="AA28" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>222</v>
       </c>
       <c r="AD28" t="s">
         <v>222</v>
       </c>
       <c r="AE28" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -4166,59 +3992,59 @@
       <c r="O29" t="s">
         <v>98</v>
       </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
       <c r="Q29" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R29" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T29" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s">
-        <v>20</v>
-      </c>
-      <c r="V29" t="s">
-        <v>219</v>
-      </c>
-      <c r="W29" s="5">
+        <v>219</v>
+      </c>
+      <c r="V29" s="5">
         <v>1998</v>
       </c>
-      <c r="X29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y29" s="9">
+      <c r="W29" t="s">
+        <v>220</v>
+      </c>
+      <c r="X29" s="9">
         <v>1999</v>
       </c>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
       <c r="Z29" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="AA29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>222</v>
       </c>
       <c r="AD29" t="s">
         <v>222</v>
       </c>
       <c r="AE29" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AF29" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -4264,56 +4090,56 @@
       <c r="O30" t="s">
         <v>102</v>
       </c>
+      <c r="P30" t="s">
+        <v>41</v>
+      </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R30" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S30" t="s">
-        <v>100</v>
-      </c>
-      <c r="T30" t="s">
-        <v>219</v>
-      </c>
-      <c r="U30" s="5">
+        <v>219</v>
+      </c>
+      <c r="T30" s="5">
         <v>1998</v>
       </c>
-      <c r="V30" t="s">
-        <v>220</v>
-      </c>
-      <c r="W30" s="5">
+      <c r="U30" t="s">
+        <v>220</v>
+      </c>
+      <c r="V30" s="5">
         <v>1998</v>
       </c>
-      <c r="X30" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y30" s="9">
+      <c r="W30" t="s">
+        <v>220</v>
+      </c>
+      <c r="X30" s="9">
         <v>1998</v>
       </c>
+      <c r="Y30" t="s">
+        <v>221</v>
+      </c>
       <c r="Z30" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>222</v>
       </c>
       <c r="AD30" t="s">
         <v>222</v>
       </c>
       <c r="AE30" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -4359,56 +4185,56 @@
       <c r="O31" t="s">
         <v>106</v>
       </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
       <c r="Q31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T31" t="s">
-        <v>220</v>
-      </c>
-      <c r="U31" s="5">
+      <c r="S31" t="s">
+        <v>220</v>
+      </c>
+      <c r="T31" s="5">
         <v>1996</v>
       </c>
-      <c r="V31" t="s">
-        <v>220</v>
-      </c>
-      <c r="W31" s="5">
+      <c r="U31" t="s">
+        <v>220</v>
+      </c>
+      <c r="V31" s="5">
         <v>1996</v>
       </c>
-      <c r="X31" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y31" s="9">
+      <c r="W31" t="s">
+        <v>220</v>
+      </c>
+      <c r="X31" s="9">
         <v>1996</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>221</v>
       </c>
-      <c r="AA31" s="5" t="s">
+      <c r="Z31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AB31" t="s">
-        <v>220</v>
+      <c r="AA31" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>222</v>
       </c>
       <c r="AD31" t="s">
         <v>222</v>
       </c>
       <c r="AE31" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -4454,56 +4280,56 @@
       <c r="O32" t="s">
         <v>108</v>
       </c>
+      <c r="P32" t="s">
+        <v>41</v>
+      </c>
       <c r="Q32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" t="s">
-        <v>219</v>
-      </c>
-      <c r="S32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T32" t="s">
-        <v>220</v>
-      </c>
-      <c r="U32" s="5">
+      <c r="S32" t="s">
+        <v>220</v>
+      </c>
+      <c r="T32" s="5">
         <v>1996</v>
       </c>
-      <c r="V32" t="s">
-        <v>220</v>
-      </c>
-      <c r="W32" s="5">
+      <c r="U32" t="s">
+        <v>220</v>
+      </c>
+      <c r="V32" s="5">
         <v>1996</v>
       </c>
-      <c r="X32" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y32" s="9">
+      <c r="W32" t="s">
+        <v>220</v>
+      </c>
+      <c r="X32" s="9">
         <v>1996</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>221</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="Z32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AB32" t="s">
-        <v>220</v>
+      <c r="AA32" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>222</v>
       </c>
       <c r="AD32" t="s">
         <v>222</v>
       </c>
       <c r="AE32" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -4549,56 +4375,56 @@
       <c r="O33" t="s">
         <v>110</v>
       </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
       <c r="Q33" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" t="s">
-        <v>219</v>
-      </c>
-      <c r="S33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T33" t="s">
-        <v>220</v>
-      </c>
-      <c r="U33" s="5">
+      <c r="S33" t="s">
+        <v>220</v>
+      </c>
+      <c r="T33" s="5">
         <v>1996</v>
       </c>
-      <c r="V33" t="s">
-        <v>220</v>
-      </c>
-      <c r="W33" s="5">
+      <c r="U33" t="s">
+        <v>220</v>
+      </c>
+      <c r="V33" s="5">
         <v>1996</v>
       </c>
-      <c r="X33" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y33" s="9">
+      <c r="W33" t="s">
+        <v>220</v>
+      </c>
+      <c r="X33" s="9">
         <v>1996</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>221</v>
       </c>
-      <c r="AA33" s="5" t="s">
+      <c r="Z33" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB33" t="s">
-        <v>220</v>
+      <c r="AA33" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>222</v>
       </c>
       <c r="AD33" t="s">
         <v>222</v>
       </c>
       <c r="AE33" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -4644,56 +4470,56 @@
       <c r="O34" t="s">
         <v>112</v>
       </c>
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
       <c r="Q34" t="s">
-        <v>41</v>
-      </c>
-      <c r="R34" t="s">
-        <v>219</v>
-      </c>
-      <c r="S34" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T34" t="s">
-        <v>220</v>
-      </c>
-      <c r="U34" s="5">
+      <c r="S34" t="s">
+        <v>220</v>
+      </c>
+      <c r="T34" s="5">
         <v>1997</v>
       </c>
-      <c r="V34" t="s">
-        <v>220</v>
-      </c>
-      <c r="W34" s="5">
+      <c r="U34" t="s">
+        <v>220</v>
+      </c>
+      <c r="V34" s="5">
         <v>1997</v>
       </c>
-      <c r="X34" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y34" s="9">
+      <c r="W34" t="s">
+        <v>220</v>
+      </c>
+      <c r="X34" s="9">
         <v>1997</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>221</v>
       </c>
-      <c r="AA34" s="5" t="s">
+      <c r="Z34" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB34" t="s">
-        <v>220</v>
+      <c r="AA34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>222</v>
       </c>
       <c r="AD34" t="s">
         <v>222</v>
       </c>
       <c r="AE34" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -4739,56 +4565,56 @@
       <c r="O35" t="s">
         <v>114</v>
       </c>
+      <c r="P35" t="s">
+        <v>41</v>
+      </c>
       <c r="Q35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" t="s">
-        <v>219</v>
-      </c>
-      <c r="S35" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T35" t="s">
-        <v>220</v>
-      </c>
-      <c r="U35" s="5">
+      <c r="S35" t="s">
+        <v>220</v>
+      </c>
+      <c r="T35" s="5">
         <v>1997</v>
       </c>
-      <c r="V35" t="s">
-        <v>220</v>
-      </c>
-      <c r="W35" s="5">
+      <c r="U35" t="s">
+        <v>220</v>
+      </c>
+      <c r="V35" s="5">
         <v>1997</v>
       </c>
-      <c r="X35" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y35" s="9">
+      <c r="W35" t="s">
+        <v>220</v>
+      </c>
+      <c r="X35" s="9">
         <v>1997</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>221</v>
       </c>
-      <c r="AA35" s="5" t="s">
+      <c r="Z35" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB35" t="s">
-        <v>220</v>
+      <c r="AA35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>222</v>
       </c>
       <c r="AD35" t="s">
         <v>222</v>
       </c>
       <c r="AE35" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -4834,56 +4660,56 @@
       <c r="O36" t="s">
         <v>117</v>
       </c>
+      <c r="P36" t="s">
+        <v>41</v>
+      </c>
       <c r="Q36" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" t="s">
-        <v>219</v>
-      </c>
-      <c r="S36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T36" t="s">
-        <v>220</v>
-      </c>
-      <c r="U36" s="5">
+      <c r="S36" t="s">
+        <v>220</v>
+      </c>
+      <c r="T36" s="5">
         <v>1997</v>
       </c>
-      <c r="V36" t="s">
-        <v>220</v>
-      </c>
-      <c r="W36" s="5">
+      <c r="U36" t="s">
+        <v>220</v>
+      </c>
+      <c r="V36" s="5">
         <v>1997</v>
       </c>
-      <c r="X36" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y36" s="9">
+      <c r="W36" t="s">
+        <v>220</v>
+      </c>
+      <c r="X36" s="9">
         <v>1997</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>221</v>
       </c>
-      <c r="AA36" s="5" t="s">
+      <c r="Z36" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB36" t="s">
-        <v>220</v>
+      <c r="AA36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>222</v>
       </c>
       <c r="AD36" t="s">
         <v>222</v>
       </c>
       <c r="AE36" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG36" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -4929,56 +4755,56 @@
       <c r="O37" t="s">
         <v>119</v>
       </c>
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
       <c r="Q37" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" t="s">
-        <v>219</v>
-      </c>
-      <c r="S37" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T37" t="s">
-        <v>220</v>
-      </c>
-      <c r="U37" s="5">
+      <c r="S37" t="s">
+        <v>220</v>
+      </c>
+      <c r="T37" s="5">
         <v>1998</v>
       </c>
-      <c r="V37" t="s">
-        <v>220</v>
-      </c>
-      <c r="W37" s="5">
+      <c r="U37" t="s">
+        <v>220</v>
+      </c>
+      <c r="V37" s="5">
         <v>1998</v>
       </c>
-      <c r="X37" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y37" s="9">
+      <c r="W37" t="s">
+        <v>220</v>
+      </c>
+      <c r="X37" s="9">
         <v>1998</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>221</v>
       </c>
-      <c r="AA37" s="5" t="s">
+      <c r="Z37" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB37" t="s">
-        <v>220</v>
+      <c r="AA37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>222</v>
       </c>
       <c r="AD37" t="s">
         <v>222</v>
       </c>
       <c r="AE37" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -5024,56 +4850,56 @@
       <c r="O38" t="s">
         <v>121</v>
       </c>
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
       <c r="Q38" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" t="s">
-        <v>219</v>
-      </c>
-      <c r="S38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T38" t="s">
-        <v>220</v>
-      </c>
-      <c r="U38" s="5">
+      <c r="S38" t="s">
+        <v>220</v>
+      </c>
+      <c r="T38" s="5">
         <v>1998</v>
       </c>
-      <c r="V38" t="s">
-        <v>220</v>
-      </c>
-      <c r="W38" s="5">
+      <c r="U38" t="s">
+        <v>220</v>
+      </c>
+      <c r="V38" s="5">
         <v>1998</v>
       </c>
-      <c r="X38" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y38" s="9">
+      <c r="W38" t="s">
+        <v>220</v>
+      </c>
+      <c r="X38" s="9">
         <v>1998</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>221</v>
       </c>
-      <c r="AA38" s="5" t="s">
+      <c r="Z38" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB38" t="s">
-        <v>220</v>
+      <c r="AA38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>222</v>
       </c>
       <c r="AD38" t="s">
         <v>222</v>
       </c>
       <c r="AE38" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG38" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -5119,56 +4945,56 @@
       <c r="O39" t="s">
         <v>123</v>
       </c>
+      <c r="P39" t="s">
+        <v>41</v>
+      </c>
       <c r="Q39" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" t="s">
-        <v>219</v>
-      </c>
-      <c r="S39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T39" t="s">
-        <v>220</v>
-      </c>
-      <c r="U39" s="5">
+      <c r="S39" t="s">
+        <v>220</v>
+      </c>
+      <c r="T39" s="5">
         <v>1999</v>
       </c>
-      <c r="V39" t="s">
-        <v>220</v>
-      </c>
-      <c r="W39" s="5">
+      <c r="U39" t="s">
+        <v>220</v>
+      </c>
+      <c r="V39" s="5">
         <v>1999</v>
       </c>
-      <c r="X39" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y39" s="9">
+      <c r="W39" t="s">
+        <v>220</v>
+      </c>
+      <c r="X39" s="9">
         <v>1999</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>221</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="Z39" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB39" t="s">
-        <v>220</v>
+      <c r="AA39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>222</v>
       </c>
       <c r="AD39" t="s">
         <v>222</v>
       </c>
       <c r="AE39" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG39" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -5214,56 +5040,56 @@
       <c r="O40" t="s">
         <v>125</v>
       </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
       <c r="Q40" t="s">
-        <v>41</v>
-      </c>
-      <c r="R40" t="s">
-        <v>219</v>
-      </c>
-      <c r="S40" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T40" t="s">
-        <v>220</v>
-      </c>
-      <c r="U40" s="5">
+      <c r="S40" t="s">
+        <v>220</v>
+      </c>
+      <c r="T40" s="5">
         <v>1998</v>
       </c>
-      <c r="V40" t="s">
-        <v>220</v>
-      </c>
-      <c r="W40" s="5">
+      <c r="U40" t="s">
+        <v>220</v>
+      </c>
+      <c r="V40" s="5">
         <v>1998</v>
       </c>
-      <c r="X40" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y40" s="9">
+      <c r="W40" t="s">
+        <v>220</v>
+      </c>
+      <c r="X40" s="9">
         <v>1998</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>221</v>
       </c>
-      <c r="AA40" s="5" t="s">
+      <c r="Z40" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB40" t="s">
-        <v>220</v>
+      <c r="AA40" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>222</v>
       </c>
       <c r="AD40" t="s">
         <v>222</v>
       </c>
       <c r="AE40" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG40" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -5309,56 +5135,56 @@
       <c r="O41" t="s">
         <v>129</v>
       </c>
+      <c r="P41" t="s">
+        <v>41</v>
+      </c>
       <c r="Q41" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R41" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S41" t="s">
-        <v>100</v>
-      </c>
-      <c r="T41" t="s">
-        <v>219</v>
-      </c>
-      <c r="U41" s="5">
+        <v>219</v>
+      </c>
+      <c r="T41" s="5">
         <v>2003</v>
       </c>
-      <c r="V41" t="s">
-        <v>220</v>
-      </c>
-      <c r="W41" s="5">
+      <c r="U41" t="s">
+        <v>220</v>
+      </c>
+      <c r="V41" s="5">
         <v>2003</v>
       </c>
-      <c r="X41" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y41" s="9">
+      <c r="W41" t="s">
+        <v>220</v>
+      </c>
+      <c r="X41" s="9">
         <v>2003</v>
       </c>
+      <c r="Y41" t="s">
+        <v>221</v>
+      </c>
       <c r="Z41" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>222</v>
       </c>
       <c r="AD41" t="s">
         <v>222</v>
       </c>
       <c r="AE41" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF41" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -5404,56 +5230,56 @@
       <c r="O42" t="s">
         <v>131</v>
       </c>
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
       <c r="Q42" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R42" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T42" t="s">
-        <v>219</v>
-      </c>
-      <c r="U42" s="5">
+        <v>219</v>
+      </c>
+      <c r="T42" s="5">
         <v>2003</v>
       </c>
-      <c r="V42" t="s">
-        <v>220</v>
-      </c>
-      <c r="W42" s="5">
+      <c r="U42" t="s">
+        <v>220</v>
+      </c>
+      <c r="V42" s="5">
         <v>2003</v>
       </c>
-      <c r="X42" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y42" s="9">
+      <c r="W42" t="s">
+        <v>220</v>
+      </c>
+      <c r="X42" s="9">
         <v>2003</v>
       </c>
+      <c r="Y42" t="s">
+        <v>221</v>
+      </c>
       <c r="Z42" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>222</v>
       </c>
       <c r="AD42" t="s">
         <v>222</v>
       </c>
       <c r="AE42" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -5499,56 +5325,56 @@
       <c r="O43" t="s">
         <v>133</v>
       </c>
+      <c r="P43" t="s">
+        <v>41</v>
+      </c>
       <c r="Q43" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R43" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S43" t="s">
-        <v>100</v>
-      </c>
-      <c r="T43" t="s">
-        <v>219</v>
-      </c>
-      <c r="U43" s="5">
+        <v>219</v>
+      </c>
+      <c r="T43" s="5">
         <v>2003</v>
       </c>
-      <c r="V43" t="s">
-        <v>220</v>
-      </c>
-      <c r="W43" s="5">
+      <c r="U43" t="s">
+        <v>220</v>
+      </c>
+      <c r="V43" s="5">
         <v>2003</v>
       </c>
-      <c r="X43" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="9">
+      <c r="W43" t="s">
+        <v>220</v>
+      </c>
+      <c r="X43" s="9">
         <v>2003</v>
       </c>
+      <c r="Y43" t="s">
+        <v>221</v>
+      </c>
       <c r="Z43" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>222</v>
       </c>
       <c r="AD43" t="s">
         <v>222</v>
       </c>
       <c r="AE43" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -5594,56 +5420,56 @@
       <c r="O44" t="s">
         <v>135</v>
       </c>
+      <c r="P44" t="s">
+        <v>41</v>
+      </c>
       <c r="Q44" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R44" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S44" t="s">
-        <v>100</v>
-      </c>
-      <c r="T44" t="s">
-        <v>219</v>
-      </c>
-      <c r="U44" s="5">
+        <v>219</v>
+      </c>
+      <c r="T44" s="5">
         <v>2001</v>
       </c>
-      <c r="V44" t="s">
-        <v>220</v>
-      </c>
-      <c r="W44" s="5">
+      <c r="U44" t="s">
+        <v>220</v>
+      </c>
+      <c r="V44" s="5">
         <v>2001</v>
       </c>
-      <c r="X44" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y44" s="9">
+      <c r="W44" t="s">
+        <v>220</v>
+      </c>
+      <c r="X44" s="9">
         <v>2001</v>
       </c>
+      <c r="Y44" t="s">
+        <v>221</v>
+      </c>
       <c r="Z44" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>222</v>
       </c>
       <c r="AD44" t="s">
         <v>222</v>
       </c>
       <c r="AE44" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -5689,56 +5515,56 @@
       <c r="O45" t="s">
         <v>137</v>
       </c>
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
       <c r="Q45" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R45" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S45" t="s">
-        <v>100</v>
-      </c>
-      <c r="T45" t="s">
-        <v>219</v>
-      </c>
-      <c r="U45" s="5">
+        <v>219</v>
+      </c>
+      <c r="T45" s="5">
         <v>2001</v>
       </c>
-      <c r="V45" t="s">
-        <v>220</v>
-      </c>
-      <c r="W45" s="5">
+      <c r="U45" t="s">
+        <v>220</v>
+      </c>
+      <c r="V45" s="5">
         <v>2001</v>
       </c>
-      <c r="X45" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y45" s="9">
+      <c r="W45" t="s">
+        <v>220</v>
+      </c>
+      <c r="X45" s="9">
         <v>2001</v>
       </c>
+      <c r="Y45" t="s">
+        <v>221</v>
+      </c>
       <c r="Z45" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>222</v>
       </c>
       <c r="AD45" t="s">
         <v>222</v>
       </c>
       <c r="AE45" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5784,56 +5610,56 @@
       <c r="O46" t="s">
         <v>139</v>
       </c>
+      <c r="P46" t="s">
+        <v>41</v>
+      </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R46" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="S46" t="s">
-        <v>100</v>
-      </c>
-      <c r="T46" t="s">
-        <v>219</v>
-      </c>
-      <c r="U46" s="5">
+        <v>219</v>
+      </c>
+      <c r="T46" s="5">
         <v>2001</v>
       </c>
-      <c r="V46" t="s">
-        <v>220</v>
-      </c>
-      <c r="W46" s="5">
+      <c r="U46" t="s">
+        <v>220</v>
+      </c>
+      <c r="V46" s="5">
         <v>2001</v>
       </c>
-      <c r="X46" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y46" s="9">
+      <c r="W46" t="s">
+        <v>220</v>
+      </c>
+      <c r="X46" s="9">
         <v>2001</v>
       </c>
+      <c r="Y46" t="s">
+        <v>221</v>
+      </c>
       <c r="Z46" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>222</v>
       </c>
       <c r="AD46" t="s">
         <v>222</v>
       </c>
       <c r="AE46" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG46" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -5879,56 +5705,56 @@
       <c r="O47" t="s">
         <v>143</v>
       </c>
+      <c r="P47" t="s">
+        <v>41</v>
+      </c>
       <c r="Q47" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R47" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S47" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" t="s">
-        <v>219</v>
-      </c>
-      <c r="U47" s="5">
+        <v>219</v>
+      </c>
+      <c r="T47" s="5">
         <v>1997</v>
       </c>
-      <c r="V47" t="s">
-        <v>220</v>
-      </c>
-      <c r="W47" s="5">
+      <c r="U47" t="s">
+        <v>220</v>
+      </c>
+      <c r="V47" s="5">
         <v>1997</v>
       </c>
-      <c r="X47" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y47" s="9">
+      <c r="W47" t="s">
+        <v>220</v>
+      </c>
+      <c r="X47" s="9">
         <v>1997</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>221</v>
       </c>
-      <c r="AA47" s="5" t="s">
+      <c r="Z47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB47" t="s">
-        <v>220</v>
+      <c r="AA47" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>222</v>
       </c>
       <c r="AD47" t="s">
         <v>222</v>
       </c>
       <c r="AE47" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="AF47" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG47" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -5974,56 +5800,56 @@
       <c r="O48" t="s">
         <v>147</v>
       </c>
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
       <c r="Q48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="U48" s="5">
+        <v>220</v>
+      </c>
+      <c r="T48" s="5">
         <v>2006</v>
       </c>
-      <c r="V48" t="s">
-        <v>220</v>
-      </c>
-      <c r="W48" s="5">
+      <c r="U48" t="s">
+        <v>220</v>
+      </c>
+      <c r="V48" s="5">
         <v>2006</v>
       </c>
-      <c r="X48" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y48" s="9">
+      <c r="W48" t="s">
+        <v>220</v>
+      </c>
+      <c r="X48" s="9">
         <v>2006</v>
       </c>
+      <c r="Y48" t="s">
+        <v>221</v>
+      </c>
       <c r="Z48" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="AA48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>222</v>
       </c>
       <c r="AD48" t="s">
         <v>222</v>
       </c>
       <c r="AE48" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG48" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -6069,56 +5895,56 @@
       <c r="O49" t="s">
         <v>149</v>
       </c>
+      <c r="P49" t="s">
+        <v>41</v>
+      </c>
       <c r="Q49" t="s">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="U49" s="5">
+        <v>220</v>
+      </c>
+      <c r="T49" s="5">
         <v>2006</v>
       </c>
-      <c r="V49" t="s">
-        <v>220</v>
-      </c>
-      <c r="W49" s="5">
+      <c r="U49" t="s">
+        <v>220</v>
+      </c>
+      <c r="V49" s="5">
         <v>2006</v>
       </c>
-      <c r="X49" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y49" s="9">
+      <c r="W49" t="s">
+        <v>220</v>
+      </c>
+      <c r="X49" s="9">
         <v>2006</v>
       </c>
+      <c r="Y49" t="s">
+        <v>221</v>
+      </c>
       <c r="Z49" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA49" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>222</v>
       </c>
       <c r="AD49" t="s">
         <v>222</v>
       </c>
       <c r="AE49" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -6164,56 +5990,56 @@
       <c r="O50" t="s">
         <v>151</v>
       </c>
+      <c r="P50" t="s">
+        <v>41</v>
+      </c>
       <c r="Q50" t="s">
-        <v>41</v>
-      </c>
-      <c r="R50" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="U50" s="5">
+        <v>220</v>
+      </c>
+      <c r="T50" s="5">
         <v>2007</v>
       </c>
-      <c r="V50" t="s">
-        <v>220</v>
-      </c>
-      <c r="W50" s="5">
+      <c r="U50" t="s">
+        <v>220</v>
+      </c>
+      <c r="V50" s="5">
         <v>2007</v>
       </c>
-      <c r="X50" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y50" s="9">
+      <c r="W50" t="s">
+        <v>220</v>
+      </c>
+      <c r="X50" s="9">
         <v>2007</v>
       </c>
+      <c r="Y50" t="s">
+        <v>221</v>
+      </c>
       <c r="Z50" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>222</v>
       </c>
       <c r="AD50" t="s">
         <v>222</v>
       </c>
       <c r="AE50" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -6259,56 +6085,56 @@
       <c r="O51" t="s">
         <v>153</v>
       </c>
+      <c r="P51" t="s">
+        <v>41</v>
+      </c>
       <c r="Q51" t="s">
-        <v>41</v>
-      </c>
-      <c r="R51" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="U51" s="5">
+        <v>220</v>
+      </c>
+      <c r="T51" s="5">
         <v>2008</v>
       </c>
-      <c r="V51" t="s">
-        <v>220</v>
-      </c>
-      <c r="W51" s="5">
+      <c r="U51" t="s">
+        <v>220</v>
+      </c>
+      <c r="V51" s="5">
         <v>2008</v>
       </c>
-      <c r="X51" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y51" s="9">
+      <c r="W51" t="s">
+        <v>220</v>
+      </c>
+      <c r="X51" s="9">
         <v>2008</v>
       </c>
+      <c r="Y51" t="s">
+        <v>221</v>
+      </c>
       <c r="Z51" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>222</v>
       </c>
       <c r="AD51" t="s">
         <v>222</v>
       </c>
       <c r="AE51" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG51" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -6354,59 +6180,59 @@
       <c r="O52" t="s">
         <v>157</v>
       </c>
+      <c r="P52" t="s">
+        <v>19</v>
+      </c>
       <c r="Q52" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R52" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S52" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T52" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U52" t="s">
-        <v>20</v>
-      </c>
-      <c r="V52" t="s">
-        <v>219</v>
-      </c>
-      <c r="W52" s="5">
+        <v>219</v>
+      </c>
+      <c r="V52" s="5">
         <v>2001</v>
       </c>
-      <c r="X52" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y52" s="9">
+      <c r="W52" t="s">
+        <v>220</v>
+      </c>
+      <c r="X52" s="9">
         <v>2009</v>
       </c>
+      <c r="Y52" t="s">
+        <v>221</v>
+      </c>
       <c r="Z52" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="AA52" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>222</v>
       </c>
       <c r="AD52" t="s">
         <v>222</v>
       </c>
       <c r="AE52" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="AF52" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="AG52" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -6452,56 +6278,56 @@
       <c r="O53" t="s">
         <v>160</v>
       </c>
+      <c r="P53" t="s">
+        <v>19</v>
+      </c>
       <c r="Q53" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R53" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T53" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U53" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V53" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>20</v>
-      </c>
-      <c r="X53" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y53">
+        <v>219</v>
+      </c>
+      <c r="X53">
         <v>2013</v>
       </c>
+      <c r="Y53" t="s">
+        <v>219</v>
+      </c>
       <c r="Z53" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="AA53" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>222</v>
       </c>
       <c r="AD53" t="s">
         <v>222</v>
       </c>
       <c r="AE53" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -6547,56 +6373,56 @@
       <c r="O54" t="s">
         <v>163</v>
       </c>
+      <c r="P54" t="s">
+        <v>41</v>
+      </c>
       <c r="Q54" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R54" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S54" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T54" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="U54" t="s">
+        <v>219</v>
+      </c>
+      <c r="V54" t="s">
         <v>162</v>
       </c>
-      <c r="V54" t="s">
-        <v>219</v>
-      </c>
       <c r="W54" t="s">
-        <v>162</v>
-      </c>
-      <c r="X54" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y54">
+        <v>219</v>
+      </c>
+      <c r="X54">
         <v>2005</v>
       </c>
+      <c r="Y54" t="s">
+        <v>219</v>
+      </c>
       <c r="Z54" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>222</v>
       </c>
       <c r="AD54" t="s">
         <v>222</v>
       </c>
       <c r="AE54" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -6642,56 +6468,56 @@
       <c r="O55" t="s">
         <v>165</v>
       </c>
+      <c r="P55" t="s">
+        <v>41</v>
+      </c>
       <c r="Q55" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R55" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S55" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T55" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="U55" t="s">
+        <v>219</v>
+      </c>
+      <c r="V55" t="s">
         <v>162</v>
       </c>
-      <c r="V55" t="s">
-        <v>219</v>
-      </c>
       <c r="W55" t="s">
-        <v>162</v>
-      </c>
-      <c r="X55" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y55">
+        <v>219</v>
+      </c>
+      <c r="X55">
         <v>2005</v>
       </c>
+      <c r="Y55" t="s">
+        <v>219</v>
+      </c>
       <c r="Z55" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>222</v>
       </c>
       <c r="AD55" t="s">
         <v>222</v>
       </c>
       <c r="AE55" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF55" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -6737,56 +6563,56 @@
       <c r="O56" t="s">
         <v>167</v>
       </c>
+      <c r="P56" t="s">
+        <v>41</v>
+      </c>
       <c r="Q56" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R56" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S56" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T56" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="U56" t="s">
+        <v>219</v>
+      </c>
+      <c r="V56" t="s">
         <v>162</v>
       </c>
-      <c r="V56" t="s">
-        <v>219</v>
-      </c>
       <c r="W56" t="s">
-        <v>162</v>
-      </c>
-      <c r="X56" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y56">
+        <v>219</v>
+      </c>
+      <c r="X56">
         <v>2005</v>
       </c>
+      <c r="Y56" t="s">
+        <v>219</v>
+      </c>
       <c r="Z56" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>222</v>
       </c>
       <c r="AD56" t="s">
         <v>222</v>
       </c>
       <c r="AE56" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG56" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -6832,56 +6658,56 @@
       <c r="O57" t="s">
         <v>169</v>
       </c>
+      <c r="P57" t="s">
+        <v>41</v>
+      </c>
       <c r="Q57" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="R57" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S57" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="U57" t="s">
+        <v>219</v>
+      </c>
+      <c r="V57" t="s">
         <v>162</v>
       </c>
-      <c r="V57" t="s">
-        <v>219</v>
-      </c>
       <c r="W57" t="s">
-        <v>162</v>
-      </c>
-      <c r="X57" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y57">
+        <v>219</v>
+      </c>
+      <c r="X57">
         <v>2005</v>
       </c>
+      <c r="Y57" t="s">
+        <v>219</v>
+      </c>
       <c r="Z57" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>222</v>
       </c>
       <c r="AD57" t="s">
         <v>222</v>
       </c>
       <c r="AE57" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG57" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -6927,59 +6753,59 @@
       <c r="O58" t="s">
         <v>171</v>
       </c>
+      <c r="P58" t="s">
+        <v>19</v>
+      </c>
       <c r="Q58" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="R58" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="S58" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="T58" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U58" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="V58" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="W58" t="s">
-        <v>20</v>
-      </c>
-      <c r="X58" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y58">
+        <v>219</v>
+      </c>
+      <c r="X58">
         <v>2013</v>
       </c>
+      <c r="Y58" t="s">
+        <v>219</v>
+      </c>
       <c r="Z58" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="AA58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>222</v>
       </c>
       <c r="AD58" t="s">
         <v>222</v>
       </c>
       <c r="AE58" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF58" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="AG58" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH58" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -7025,59 +6851,59 @@
       <c r="O59" t="s">
         <v>175</v>
       </c>
+      <c r="P59" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Q59" s="5" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="S59" s="5" t="s">
         <v>214</v>
       </c>
+      <c r="S59" t="s">
+        <v>220</v>
+      </c>
       <c r="T59" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="U59" t="s">
+        <v>219</v>
+      </c>
+      <c r="V59" t="s">
         <v>173</v>
       </c>
-      <c r="V59" t="s">
-        <v>219</v>
-      </c>
       <c r="W59" t="s">
-        <v>173</v>
-      </c>
-      <c r="X59" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y59">
+        <v>219</v>
+      </c>
+      <c r="X59">
         <v>2012</v>
       </c>
+      <c r="Y59" t="s">
+        <v>219</v>
+      </c>
       <c r="Z59" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>222</v>
       </c>
       <c r="AD59" t="s">
         <v>222</v>
       </c>
       <c r="AE59" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH59" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG59" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -7123,59 +6949,59 @@
       <c r="O60" t="s">
         <v>177</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="P60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R60" t="s">
-        <v>220</v>
-      </c>
-      <c r="S60" s="5" t="s">
+      <c r="Q60" t="s">
+        <v>220</v>
+      </c>
+      <c r="R60" s="5" t="s">
         <v>216</v>
       </c>
+      <c r="S60" t="s">
+        <v>220</v>
+      </c>
       <c r="T60" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="U60" t="s">
+        <v>219</v>
+      </c>
+      <c r="V60" t="s">
         <v>173</v>
       </c>
-      <c r="V60" t="s">
-        <v>219</v>
-      </c>
       <c r="W60" t="s">
-        <v>173</v>
-      </c>
-      <c r="X60" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y60">
+        <v>219</v>
+      </c>
+      <c r="X60">
         <v>2012</v>
       </c>
+      <c r="Y60" t="s">
+        <v>219</v>
+      </c>
       <c r="Z60" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="AA60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>222</v>
       </c>
       <c r="AD60" t="s">
         <v>222</v>
       </c>
       <c r="AE60" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH60" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG60" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -7221,59 +7047,59 @@
       <c r="O61" t="s">
         <v>180</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="P61" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="Q61" t="s">
+        <v>220</v>
+      </c>
       <c r="R61" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S61" t="s">
-        <v>20</v>
-      </c>
-      <c r="T61" t="s">
-        <v>219</v>
-      </c>
-      <c r="U61" s="5">
+        <v>219</v>
+      </c>
+      <c r="T61" s="5">
         <v>2001</v>
       </c>
-      <c r="V61" t="s">
-        <v>220</v>
-      </c>
-      <c r="W61" s="5">
+      <c r="U61" t="s">
+        <v>220</v>
+      </c>
+      <c r="V61" s="5">
         <v>2001</v>
       </c>
-      <c r="X61" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y61" s="9">
+      <c r="W61" t="s">
+        <v>220</v>
+      </c>
+      <c r="X61" s="9">
         <v>2001</v>
       </c>
+      <c r="Y61" t="s">
+        <v>221</v>
+      </c>
       <c r="Z61" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA61" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>222</v>
       </c>
       <c r="AD61" t="s">
         <v>222</v>
       </c>
       <c r="AE61" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF61" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH61" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG61" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -7319,59 +7145,59 @@
       <c r="O62" t="s">
         <v>182</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="P62" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="Q62" t="s">
+        <v>220</v>
+      </c>
       <c r="R62" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S62" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" t="s">
-        <v>219</v>
-      </c>
-      <c r="U62" s="5">
+        <v>219</v>
+      </c>
+      <c r="T62" s="5">
         <v>2004</v>
       </c>
-      <c r="V62" t="s">
-        <v>220</v>
-      </c>
-      <c r="W62" s="5">
+      <c r="U62" t="s">
+        <v>220</v>
+      </c>
+      <c r="V62" s="5">
         <v>2004</v>
       </c>
-      <c r="X62" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y62" s="9">
+      <c r="W62" t="s">
+        <v>220</v>
+      </c>
+      <c r="X62" s="9">
         <v>2004</v>
       </c>
+      <c r="Y62" t="s">
+        <v>221</v>
+      </c>
       <c r="Z62" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>222</v>
       </c>
       <c r="AD62" t="s">
         <v>222</v>
       </c>
       <c r="AE62" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF62" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH62" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG62" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -7417,59 +7243,59 @@
       <c r="O63" t="s">
         <v>184</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="P63" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="Q63" t="s">
+        <v>220</v>
+      </c>
       <c r="R63" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S63" t="s">
-        <v>20</v>
-      </c>
-      <c r="T63" t="s">
-        <v>219</v>
-      </c>
-      <c r="U63" s="5">
+        <v>219</v>
+      </c>
+      <c r="T63" s="5">
         <v>1997</v>
       </c>
-      <c r="V63" t="s">
-        <v>220</v>
-      </c>
-      <c r="W63" s="5">
+      <c r="U63" t="s">
+        <v>220</v>
+      </c>
+      <c r="V63" s="5">
         <v>1997</v>
       </c>
-      <c r="X63" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y63" s="9">
+      <c r="W63" t="s">
+        <v>220</v>
+      </c>
+      <c r="X63" s="9">
         <v>1997</v>
       </c>
+      <c r="Y63" t="s">
+        <v>221</v>
+      </c>
       <c r="Z63" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="AA63" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>219</v>
+        <v>219</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>222</v>
       </c>
       <c r="AD63" t="s">
         <v>222</v>
       </c>
       <c r="AE63" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AF63" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH63" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG63" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -7515,61 +7341,61 @@
       <c r="O64" t="s">
         <v>188</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="P64" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="Q64" t="s">
+        <v>220</v>
+      </c>
       <c r="R64" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="S64" t="s">
-        <v>20</v>
-      </c>
-      <c r="T64" t="s">
-        <v>219</v>
-      </c>
-      <c r="U64" s="5">
+        <v>219</v>
+      </c>
+      <c r="T64" s="5">
         <v>1986</v>
       </c>
-      <c r="V64" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="W64" s="5">
+      <c r="U64" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V64" s="5">
         <v>1986</v>
       </c>
-      <c r="X64" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y64" s="9">
+      <c r="W64" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X64" s="9">
         <v>1986</v>
       </c>
+      <c r="Y64" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="Z64" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA64" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AB64" t="s">
-        <v>220</v>
+      <c r="AA64" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>222</v>
       </c>
       <c r="AD64" t="s">
         <v>222</v>
       </c>
       <c r="AE64" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="AF64" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG64" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:AG1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+  <conditionalFormatting sqref="P1:AF1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tabular/Ind_miss.xlsx
+++ b/tabular/Ind_miss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD049700-545A-2647-833A-D7F71394904E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE7054-A6CB-024D-89E9-673BBC2C8C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="36580" windowHeight="23480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,51 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="224">
   <si>
-    <t>sequence.sequenceID</t>
-  </si>
-  <si>
-    <t>alignment.name</t>
-  </si>
-  <si>
-    <t>alignment.displayName</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.id</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.display_name</t>
-  </si>
-  <si>
-    <t>sequence.gb_place_sampled</t>
-  </si>
-  <si>
-    <t>sequence.collection_year</t>
-  </si>
-  <si>
-    <t>sequence.earliest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.latest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.gb_length</t>
-  </si>
-  <si>
-    <t>sequence.gb_create_date</t>
-  </si>
-  <si>
-    <t>sequence.gb_update_date</t>
-  </si>
-  <si>
-    <t>sequence.host</t>
-  </si>
-  <si>
-    <t>sequence.gb_pubmed_id</t>
-  </si>
-  <si>
-    <t>sequence.isolate</t>
-  </si>
-  <si>
     <t>AB041964</t>
   </si>
   <si>
@@ -592,48 +547,21 @@
     <t>country_edit</t>
   </si>
   <si>
-    <t>Country_update</t>
-  </si>
-  <si>
     <t>place_edit</t>
   </si>
   <si>
     <t>place_update</t>
   </si>
   <si>
-    <t>Collection.year_edit</t>
-  </si>
-  <si>
-    <t>Collection.year_update</t>
-  </si>
-  <si>
-    <t>earliest.collection_edit</t>
-  </si>
-  <si>
-    <t>earliest.collection_update</t>
-  </si>
-  <si>
-    <t>latest.collection_edit</t>
-  </si>
-  <si>
-    <t>latest.collection_update</t>
-  </si>
-  <si>
     <t>host_edit</t>
   </si>
   <si>
     <t>host_update</t>
   </si>
   <si>
-    <t>host.common_edit</t>
-  </si>
-  <si>
     <t>Lab_construct</t>
   </si>
   <si>
-    <t>vaccine</t>
-  </si>
-  <si>
     <t>pubmedID_edit</t>
   </si>
   <si>
@@ -692,6 +620,78 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>alignment_name</t>
+  </si>
+  <si>
+    <t>alignment_displayName</t>
+  </si>
+  <si>
+    <t>m49_country.id</t>
+  </si>
+  <si>
+    <t>m49_country.display_name</t>
+  </si>
+  <si>
+    <t>gb_place_sampled</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>earliest_collection_year</t>
+  </si>
+  <si>
+    <t>latest_collection_year</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>gb_pubmed_id</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>country_update</t>
+  </si>
+  <si>
+    <t>collection_year_edit</t>
+  </si>
+  <si>
+    <t>collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,12 +729,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -760,8 +754,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -771,19 +771,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -795,42 +810,20 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -858,15 +851,75 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFC000"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF60F8FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -884,24 +937,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{366CB5B0-DACB-D14D-B708-5305FFBF8B28}" name="Table1" displayName="Table1" ref="P1:AF64" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{366CB5B0-DACB-D14D-B708-5305FFBF8B28}" name="Table1" displayName="Table1" ref="P1:AF64" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="P1:AF64" xr:uid="{F1904DD6-C0FF-D14A-AB81-6C06FA9F581C}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{486C82FC-36BA-8742-8549-C704E6A7E28E}" name="country_edit"/>
-    <tableColumn id="2" xr3:uid="{4BE4E34E-B291-CB4C-90D6-7F1F5ADBA5FF}" name="Country_update"/>
+    <tableColumn id="2" xr3:uid="{4BE4E34E-B291-CB4C-90D6-7F1F5ADBA5FF}" name="country_update"/>
     <tableColumn id="3" xr3:uid="{D50E6005-4EBD-2B47-A397-5AF29E1FE359}" name="place_edit"/>
     <tableColumn id="4" xr3:uid="{323DDA63-EFEB-2E42-A864-55F5417F7908}" name="place_update"/>
-    <tableColumn id="5" xr3:uid="{68EDBFBE-0075-C94A-AB80-24E3A6C4C655}" name="Collection.year_edit"/>
-    <tableColumn id="6" xr3:uid="{94D1BA82-1921-3F4B-B930-3C56A5A2542F}" name="Collection.year_update"/>
-    <tableColumn id="7" xr3:uid="{58BC4D3C-84EE-A349-A2E2-466ABF66C48A}" name="earliest.collection_edit" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{4878DAA8-AE5A-454A-8309-EC11392F5091}" name="earliest.collection_update"/>
-    <tableColumn id="9" xr3:uid="{0A200F8C-90EE-C64B-BB85-D4CC9C76A612}" name="latest.collection_edit"/>
-    <tableColumn id="10" xr3:uid="{23387222-E827-4842-994C-36FA1BACF554}" name="latest.collection_update"/>
+    <tableColumn id="5" xr3:uid="{68EDBFBE-0075-C94A-AB80-24E3A6C4C655}" name="collection_year_edit"/>
+    <tableColumn id="6" xr3:uid="{94D1BA82-1921-3F4B-B930-3C56A5A2542F}" name="collection_year_update"/>
+    <tableColumn id="7" xr3:uid="{58BC4D3C-84EE-A349-A2E2-466ABF66C48A}" name="earliest_collection_edit" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{4878DAA8-AE5A-454A-8309-EC11392F5091}" name="earliest_collection_update"/>
+    <tableColumn id="9" xr3:uid="{0A200F8C-90EE-C64B-BB85-D4CC9C76A612}" name="latest_collection_edit"/>
+    <tableColumn id="10" xr3:uid="{23387222-E827-4842-994C-36FA1BACF554}" name="latest_collection_update"/>
     <tableColumn id="11" xr3:uid="{0B04900A-D058-0347-B66B-B097A1CB4F90}" name="host_edit"/>
     <tableColumn id="12" xr3:uid="{D0997207-5E72-1E42-B3F3-0BD98053389D}" name="host_update"/>
-    <tableColumn id="13" xr3:uid="{3F6A0147-A100-A54B-8BD5-80EE1CEA9050}" name="host.common_edit"/>
+    <tableColumn id="13" xr3:uid="{3F6A0147-A100-A54B-8BD5-80EE1CEA9050}" name="host_common_edit"/>
     <tableColumn id="14" xr3:uid="{B0C2F5CE-E885-CA48-8DD6-D9CFD1071675}" name="Lab_construct"/>
-    <tableColumn id="15" xr3:uid="{68865FCF-95BB-CD47-862A-DCB5695E20FF}" name="vaccine"/>
+    <tableColumn id="15" xr3:uid="{68865FCF-95BB-CD47-862A-DCB5695E20FF}" name="Vaccine"/>
     <tableColumn id="16" xr3:uid="{5809554C-7702-D042-BC95-1A34A5A90AFB}" name="pubmedID_edit"/>
     <tableColumn id="17" xr3:uid="{53C55767-60F3-114A-903A-1F5AECD5E114}" name="pubmed_update"/>
   </tableColumns>
@@ -1232,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="AG1" sqref="A1:AG1048576"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AF1" sqref="A1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1256,131 +1309,131 @@
     <col min="32" max="32" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>2003</v>
@@ -1389,96 +1442,96 @@
         <v>1353</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X2">
         <v>2003</v>
       </c>
       <c r="Y2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="AA2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>2003</v>
@@ -1487,96 +1540,96 @@
         <v>1353</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X3">
         <v>2003</v>
       </c>
       <c r="Y3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>73</v>
+        <v>195</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>2003</v>
@@ -1585,96 +1638,96 @@
         <v>1353</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X4">
         <v>2003</v>
       </c>
       <c r="Y4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG4" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>2003</v>
@@ -1683,96 +1736,96 @@
         <v>1353</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X5">
         <v>2003</v>
       </c>
       <c r="Y5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>208</v>
+        <v>195</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="AA5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG5" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>2003</v>
@@ -1781,96 +1834,96 @@
         <v>1353</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X6">
         <v>2003</v>
       </c>
       <c r="Y6" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>94</v>
+        <v>195</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AA6" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD6" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG6" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>2003</v>
@@ -1879,96 +1932,96 @@
         <v>1353</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X7">
         <v>2003</v>
       </c>
       <c r="Y7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>209</v>
+        <v>195</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="AA7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>2001</v>
@@ -1977,93 +2030,93 @@
         <v>2091</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>211</v>
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="Q8" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>219</v>
-      </c>
-      <c r="T8" s="5">
+        <v>195</v>
+      </c>
+      <c r="T8" s="1">
         <v>1989</v>
       </c>
       <c r="U8" t="s">
-        <v>220</v>
-      </c>
-      <c r="V8" s="5">
+        <v>196</v>
+      </c>
+      <c r="V8" s="1">
         <v>1989</v>
       </c>
       <c r="W8" t="s">
-        <v>220</v>
-      </c>
-      <c r="X8" s="9">
+        <v>196</v>
+      </c>
+      <c r="X8" s="5">
         <v>1989</v>
       </c>
       <c r="Y8" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA8" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC8" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD8" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>2001</v>
@@ -2072,93 +2125,93 @@
         <v>1206</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X9">
         <v>2001</v>
       </c>
       <c r="Y9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC9" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD9" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>2001</v>
@@ -2167,93 +2220,93 @@
         <v>920</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>219</v>
-      </c>
-      <c r="T10" s="5">
+        <v>195</v>
+      </c>
+      <c r="T10" s="1">
         <v>1995</v>
       </c>
       <c r="U10" t="s">
-        <v>220</v>
-      </c>
-      <c r="V10" s="5">
+        <v>196</v>
+      </c>
+      <c r="V10" s="1">
         <v>1995</v>
       </c>
       <c r="W10" t="s">
-        <v>220</v>
-      </c>
-      <c r="X10" s="9">
+        <v>196</v>
+      </c>
+      <c r="X10" s="5">
         <v>1995</v>
       </c>
       <c r="Y10" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AF10" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>2001</v>
@@ -2262,93 +2315,93 @@
         <v>920</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>219</v>
-      </c>
-      <c r="T11" s="5">
+        <v>195</v>
+      </c>
+      <c r="T11" s="1">
         <v>1986</v>
       </c>
       <c r="U11" t="s">
-        <v>220</v>
-      </c>
-      <c r="V11" s="5">
+        <v>196</v>
+      </c>
+      <c r="V11" s="1">
         <v>1986</v>
       </c>
       <c r="W11" t="s">
-        <v>220</v>
-      </c>
-      <c r="X11" s="9">
+        <v>196</v>
+      </c>
+      <c r="X11" s="5">
         <v>1986</v>
       </c>
       <c r="Y11" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AF11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>2001</v>
@@ -2357,93 +2410,93 @@
         <v>920</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>219</v>
-      </c>
-      <c r="T12" s="5">
+        <v>195</v>
+      </c>
+      <c r="T12" s="1">
         <v>1986</v>
       </c>
       <c r="U12" t="s">
-        <v>220</v>
-      </c>
-      <c r="V12" s="5">
+        <v>196</v>
+      </c>
+      <c r="V12" s="1">
         <v>1986</v>
       </c>
       <c r="W12" t="s">
-        <v>220</v>
-      </c>
-      <c r="X12" s="9">
+        <v>196</v>
+      </c>
+      <c r="X12" s="5">
         <v>1986</v>
       </c>
       <c r="Y12" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD12" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>2002</v>
@@ -2452,93 +2505,93 @@
         <v>405</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Q13" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s">
-        <v>219</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>20</v>
+        <v>195</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>219</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>20</v>
+        <v>195</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W13" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X13">
         <v>2002</v>
       </c>
       <c r="Y13" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA13" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD13" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>2003</v>
@@ -2547,93 +2600,93 @@
         <v>1414</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" t="s">
-        <v>62</v>
-      </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s">
-        <v>219</v>
-      </c>
-      <c r="T14" s="5">
+        <v>195</v>
+      </c>
+      <c r="T14" s="1">
         <v>1986</v>
       </c>
       <c r="U14" t="s">
-        <v>220</v>
-      </c>
-      <c r="V14" s="5">
+        <v>196</v>
+      </c>
+      <c r="V14" s="1">
         <v>1986</v>
       </c>
       <c r="W14" t="s">
-        <v>220</v>
-      </c>
-      <c r="X14" s="9">
+        <v>196</v>
+      </c>
+      <c r="X14" s="5">
         <v>1986</v>
       </c>
       <c r="Y14" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z14" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC14" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD14" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE14" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2003</v>
@@ -2642,93 +2695,93 @@
         <v>1414</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s">
-        <v>219</v>
-      </c>
-      <c r="T15" s="5">
+        <v>195</v>
+      </c>
+      <c r="T15" s="1">
         <v>2001</v>
       </c>
       <c r="U15" t="s">
-        <v>220</v>
-      </c>
-      <c r="V15" s="5">
+        <v>196</v>
+      </c>
+      <c r="V15" s="1">
         <v>2001</v>
       </c>
       <c r="W15" t="s">
-        <v>220</v>
-      </c>
-      <c r="X15" s="9">
+        <v>196</v>
+      </c>
+      <c r="X15" s="5">
         <v>2001</v>
       </c>
       <c r="Y15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2003</v>
@@ -2737,93 +2790,93 @@
         <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S16" t="s">
-        <v>219</v>
-      </c>
-      <c r="T16" s="5">
+        <v>195</v>
+      </c>
+      <c r="T16" s="1">
         <v>2001</v>
       </c>
       <c r="U16" t="s">
-        <v>220</v>
-      </c>
-      <c r="V16" s="5">
+        <v>196</v>
+      </c>
+      <c r="V16" s="1">
         <v>2001</v>
       </c>
       <c r="W16" t="s">
-        <v>220</v>
-      </c>
-      <c r="X16" s="9">
+        <v>196</v>
+      </c>
+      <c r="X16" s="5">
         <v>2001</v>
       </c>
       <c r="Y16" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD16" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>2003</v>
@@ -2832,93 +2885,93 @@
         <v>319</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S17" t="s">
-        <v>219</v>
-      </c>
-      <c r="T17" s="5">
+        <v>195</v>
+      </c>
+      <c r="T17" s="1">
         <v>2001</v>
       </c>
       <c r="U17" t="s">
-        <v>220</v>
-      </c>
-      <c r="V17" s="5">
+        <v>196</v>
+      </c>
+      <c r="V17" s="1">
         <v>2001</v>
       </c>
       <c r="W17" t="s">
-        <v>220</v>
-      </c>
-      <c r="X17" s="9">
+        <v>196</v>
+      </c>
+      <c r="X17" s="5">
         <v>2001</v>
       </c>
       <c r="Y17" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD17" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>2003</v>
@@ -2927,93 +2980,93 @@
         <v>319</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" t="s">
         <v>56</v>
       </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" t="s">
-        <v>71</v>
-      </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S18" t="s">
-        <v>219</v>
-      </c>
-      <c r="T18" s="5">
+        <v>195</v>
+      </c>
+      <c r="T18" s="1">
         <v>2001</v>
       </c>
       <c r="U18" t="s">
-        <v>220</v>
-      </c>
-      <c r="V18" s="5">
+        <v>196</v>
+      </c>
+      <c r="V18" s="1">
         <v>2001</v>
       </c>
       <c r="W18" t="s">
-        <v>220</v>
-      </c>
-      <c r="X18" s="9">
+        <v>196</v>
+      </c>
+      <c r="X18" s="5">
         <v>2001</v>
       </c>
       <c r="Y18" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC18" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD18" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>2003</v>
@@ -3022,96 +3075,96 @@
         <v>319</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U19" t="s">
-        <v>219</v>
-      </c>
-      <c r="V19" s="5">
+        <v>195</v>
+      </c>
+      <c r="V19" s="1">
         <v>1999</v>
       </c>
       <c r="W19" t="s">
-        <v>220</v>
-      </c>
-      <c r="X19" s="9">
+        <v>196</v>
+      </c>
+      <c r="X19" s="5">
         <v>2001</v>
       </c>
       <c r="Y19" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AA19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC19" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD19" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>2003</v>
@@ -3120,93 +3173,93 @@
         <v>319</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" t="s">
         <v>61</v>
       </c>
-      <c r="O20" t="s">
-        <v>76</v>
-      </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>219</v>
-      </c>
-      <c r="T20" s="5">
+        <v>195</v>
+      </c>
+      <c r="T20" s="1">
         <v>2001</v>
       </c>
       <c r="U20" t="s">
-        <v>220</v>
-      </c>
-      <c r="V20" s="5">
+        <v>196</v>
+      </c>
+      <c r="V20" s="1">
         <v>2001</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
-      </c>
-      <c r="X20" s="9">
+        <v>196</v>
+      </c>
+      <c r="X20" s="5">
         <v>2001</v>
       </c>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC20" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD20" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>2003</v>
@@ -3215,93 +3268,93 @@
         <v>319</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S21" t="s">
-        <v>219</v>
-      </c>
-      <c r="T21" s="5">
+        <v>195</v>
+      </c>
+      <c r="T21" s="1">
         <v>2001</v>
       </c>
       <c r="U21" t="s">
-        <v>220</v>
-      </c>
-      <c r="V21" s="5">
+        <v>196</v>
+      </c>
+      <c r="V21" s="1">
         <v>2001</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
-      </c>
-      <c r="X21" s="9">
+        <v>196</v>
+      </c>
+      <c r="X21" s="5">
         <v>2001</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AA21" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC21" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD21" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>2003</v>
@@ -3310,93 +3363,93 @@
         <v>319</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>219</v>
-      </c>
-      <c r="T22" s="5">
+        <v>195</v>
+      </c>
+      <c r="T22" s="1">
         <v>2001</v>
       </c>
       <c r="U22" t="s">
-        <v>220</v>
-      </c>
-      <c r="V22" s="5">
+        <v>196</v>
+      </c>
+      <c r="V22" s="1">
         <v>2001</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
-      </c>
-      <c r="X22" s="9">
+        <v>196</v>
+      </c>
+      <c r="X22" s="5">
         <v>2001</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC22" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD22" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>2003</v>
@@ -3405,96 +3458,96 @@
         <v>319</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>219</v>
-      </c>
-      <c r="V23" s="5">
+        <v>195</v>
+      </c>
+      <c r="V23" s="1">
         <v>1999</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
-      </c>
-      <c r="X23" s="9">
+        <v>196</v>
+      </c>
+      <c r="X23" s="5">
         <v>2001</v>
       </c>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AA23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC23" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD23" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>2003</v>
@@ -3503,93 +3556,93 @@
         <v>319</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S24" t="s">
-        <v>219</v>
-      </c>
-      <c r="T24" s="5">
+        <v>195</v>
+      </c>
+      <c r="T24" s="1">
         <v>2001</v>
       </c>
       <c r="U24" t="s">
-        <v>220</v>
-      </c>
-      <c r="V24" s="5">
+        <v>196</v>
+      </c>
+      <c r="V24" s="1">
         <v>2001</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
-      </c>
-      <c r="X24" s="9">
+        <v>196</v>
+      </c>
+      <c r="X24" s="5">
         <v>2001</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC24" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD24" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE24" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>2003</v>
@@ -3598,93 +3651,93 @@
         <v>319</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>219</v>
-      </c>
-      <c r="T25" s="5">
+        <v>195</v>
+      </c>
+      <c r="T25" s="1">
         <v>2001</v>
       </c>
       <c r="U25" t="s">
-        <v>220</v>
-      </c>
-      <c r="V25" s="5">
+        <v>196</v>
+      </c>
+      <c r="V25" s="1">
         <v>2001</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
-      </c>
-      <c r="X25" s="9">
+        <v>196</v>
+      </c>
+      <c r="X25" s="5">
         <v>2001</v>
       </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z25" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE25" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>2003</v>
@@ -3693,93 +3746,93 @@
         <v>319</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s">
-        <v>219</v>
-      </c>
-      <c r="T26" s="5">
+        <v>195</v>
+      </c>
+      <c r="T26" s="1">
         <v>2001</v>
       </c>
       <c r="U26" t="s">
-        <v>220</v>
-      </c>
-      <c r="V26" s="5">
+        <v>196</v>
+      </c>
+      <c r="V26" s="1">
         <v>2001</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
-      </c>
-      <c r="X26" s="9">
+        <v>196</v>
+      </c>
+      <c r="X26" s="5">
         <v>2001</v>
       </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z26" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AA26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE26" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>2003</v>
@@ -3788,93 +3841,93 @@
         <v>319</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R27" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S27" t="s">
-        <v>219</v>
-      </c>
-      <c r="T27" s="5">
+        <v>195</v>
+      </c>
+      <c r="T27" s="1">
         <v>2001</v>
       </c>
       <c r="U27" t="s">
-        <v>220</v>
-      </c>
-      <c r="V27" s="5">
+        <v>196</v>
+      </c>
+      <c r="V27" s="1">
         <v>2001</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
-      </c>
-      <c r="X27" s="9">
+        <v>196</v>
+      </c>
+      <c r="X27" s="5">
         <v>2001</v>
       </c>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z27" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC27" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD27" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>2003</v>
@@ -3883,93 +3936,93 @@
         <v>319</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S28" t="s">
-        <v>219</v>
-      </c>
-      <c r="T28" s="5">
+        <v>195</v>
+      </c>
+      <c r="T28" s="1">
         <v>2001</v>
       </c>
       <c r="U28" t="s">
-        <v>220</v>
-      </c>
-      <c r="V28" s="5">
+        <v>196</v>
+      </c>
+      <c r="V28" s="1">
         <v>2001</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
-      </c>
-      <c r="X28" s="9">
+        <v>196</v>
+      </c>
+      <c r="X28" s="5">
         <v>2001</v>
       </c>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC28" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD28" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE28" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>2003</v>
@@ -3978,96 +4031,96 @@
         <v>319</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S29" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U29" t="s">
-        <v>219</v>
-      </c>
-      <c r="V29" s="5">
+        <v>195</v>
+      </c>
+      <c r="V29" s="1">
         <v>1998</v>
       </c>
       <c r="W29" t="s">
-        <v>220</v>
-      </c>
-      <c r="X29" s="9">
+        <v>196</v>
+      </c>
+      <c r="X29" s="5">
         <v>1999</v>
       </c>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC29" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD29" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>2003</v>
@@ -4076,93 +4129,93 @@
         <v>1592</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q30" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R30" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T30" s="5">
+        <v>195</v>
+      </c>
+      <c r="T30" s="1">
         <v>1998</v>
       </c>
       <c r="U30" t="s">
-        <v>220</v>
-      </c>
-      <c r="V30" s="5">
+        <v>196</v>
+      </c>
+      <c r="V30" s="1">
         <v>1998</v>
       </c>
       <c r="W30" t="s">
-        <v>220</v>
-      </c>
-      <c r="X30" s="9">
+        <v>196</v>
+      </c>
+      <c r="X30" s="5">
         <v>1998</v>
       </c>
       <c r="Y30" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC30" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD30" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>2003</v>
@@ -4171,93 +4224,93 @@
         <v>400</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q31" t="s">
-        <v>219</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S31" t="s">
-        <v>220</v>
-      </c>
-      <c r="T31" s="5">
+        <v>196</v>
+      </c>
+      <c r="T31" s="1">
         <v>1996</v>
       </c>
       <c r="U31" t="s">
-        <v>220</v>
-      </c>
-      <c r="V31" s="5">
+        <v>196</v>
+      </c>
+      <c r="V31" s="1">
         <v>1996</v>
       </c>
       <c r="W31" t="s">
-        <v>220</v>
-      </c>
-      <c r="X31" s="9">
+        <v>196</v>
+      </c>
+      <c r="X31" s="5">
         <v>1996</v>
       </c>
       <c r="Y31" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>78</v>
+        <v>197</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AA31" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC31" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD31" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>2003</v>
@@ -4266,93 +4319,93 @@
         <v>400</v>
       </c>
       <c r="K32" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q32" t="s">
-        <v>219</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S32" t="s">
-        <v>220</v>
-      </c>
-      <c r="T32" s="5">
+        <v>196</v>
+      </c>
+      <c r="T32" s="1">
         <v>1996</v>
       </c>
       <c r="U32" t="s">
-        <v>220</v>
-      </c>
-      <c r="V32" s="5">
+        <v>196</v>
+      </c>
+      <c r="V32" s="1">
         <v>1996</v>
       </c>
       <c r="W32" t="s">
-        <v>220</v>
-      </c>
-      <c r="X32" s="9">
+        <v>196</v>
+      </c>
+      <c r="X32" s="5">
         <v>1996</v>
       </c>
       <c r="Y32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>64</v>
+        <v>197</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="AA32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>2003</v>
@@ -4361,93 +4414,93 @@
         <v>400</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="s">
-        <v>219</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S33" t="s">
-        <v>220</v>
-      </c>
-      <c r="T33" s="5">
+        <v>196</v>
+      </c>
+      <c r="T33" s="1">
         <v>1996</v>
       </c>
       <c r="U33" t="s">
-        <v>220</v>
-      </c>
-      <c r="V33" s="5">
+        <v>196</v>
+      </c>
+      <c r="V33" s="1">
         <v>1996</v>
       </c>
       <c r="W33" t="s">
-        <v>220</v>
-      </c>
-      <c r="X33" s="9">
+        <v>196</v>
+      </c>
+      <c r="X33" s="5">
         <v>1996</v>
       </c>
       <c r="Y33" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA33" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC33" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD33" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF33" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>2003</v>
@@ -4456,93 +4509,93 @@
         <v>400</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q34" t="s">
-        <v>219</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S34" t="s">
-        <v>220</v>
-      </c>
-      <c r="T34" s="5">
+        <v>196</v>
+      </c>
+      <c r="T34" s="1">
         <v>1997</v>
       </c>
       <c r="U34" t="s">
-        <v>220</v>
-      </c>
-      <c r="V34" s="5">
+        <v>196</v>
+      </c>
+      <c r="V34" s="1">
         <v>1997</v>
       </c>
       <c r="W34" t="s">
-        <v>220</v>
-      </c>
-      <c r="X34" s="9">
+        <v>196</v>
+      </c>
+      <c r="X34" s="5">
         <v>1997</v>
       </c>
       <c r="Y34" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA34" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC34" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD34" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF34" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>2003</v>
@@ -4551,93 +4604,93 @@
         <v>400</v>
       </c>
       <c r="K35" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q35" t="s">
-        <v>219</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S35" t="s">
-        <v>220</v>
-      </c>
-      <c r="T35" s="5">
+        <v>196</v>
+      </c>
+      <c r="T35" s="1">
         <v>1997</v>
       </c>
       <c r="U35" t="s">
-        <v>220</v>
-      </c>
-      <c r="V35" s="5">
+        <v>196</v>
+      </c>
+      <c r="V35" s="1">
         <v>1997</v>
       </c>
       <c r="W35" t="s">
-        <v>220</v>
-      </c>
-      <c r="X35" s="9">
+        <v>196</v>
+      </c>
+      <c r="X35" s="5">
         <v>1997</v>
       </c>
       <c r="Y35" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA35" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC35" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD35" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF35" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>2004</v>
@@ -4646,93 +4699,93 @@
         <v>400</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>219</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S36" t="s">
-        <v>220</v>
-      </c>
-      <c r="T36" s="5">
+        <v>196</v>
+      </c>
+      <c r="T36" s="1">
         <v>1997</v>
       </c>
       <c r="U36" t="s">
-        <v>220</v>
-      </c>
-      <c r="V36" s="5">
+        <v>196</v>
+      </c>
+      <c r="V36" s="1">
         <v>1997</v>
       </c>
       <c r="W36" t="s">
-        <v>220</v>
-      </c>
-      <c r="X36" s="9">
+        <v>196</v>
+      </c>
+      <c r="X36" s="5">
         <v>1997</v>
       </c>
       <c r="Y36" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF36" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>2004</v>
@@ -4741,93 +4794,93 @@
         <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q37" t="s">
-        <v>219</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S37" t="s">
-        <v>220</v>
-      </c>
-      <c r="T37" s="5">
+        <v>196</v>
+      </c>
+      <c r="T37" s="1">
         <v>1998</v>
       </c>
       <c r="U37" t="s">
-        <v>220</v>
-      </c>
-      <c r="V37" s="5">
+        <v>196</v>
+      </c>
+      <c r="V37" s="1">
         <v>1998</v>
       </c>
       <c r="W37" t="s">
-        <v>220</v>
-      </c>
-      <c r="X37" s="9">
+        <v>196</v>
+      </c>
+      <c r="X37" s="5">
         <v>1998</v>
       </c>
       <c r="Y37" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA37" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC37" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD37" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF37" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>2004</v>
@@ -4836,93 +4889,93 @@
         <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q38" t="s">
-        <v>219</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S38" t="s">
-        <v>220</v>
-      </c>
-      <c r="T38" s="5">
+        <v>196</v>
+      </c>
+      <c r="T38" s="1">
         <v>1998</v>
       </c>
       <c r="U38" t="s">
-        <v>220</v>
-      </c>
-      <c r="V38" s="5">
+        <v>196</v>
+      </c>
+      <c r="V38" s="1">
         <v>1998</v>
       </c>
       <c r="W38" t="s">
-        <v>220</v>
-      </c>
-      <c r="X38" s="9">
+        <v>196</v>
+      </c>
+      <c r="X38" s="5">
         <v>1998</v>
       </c>
       <c r="Y38" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA38" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC38" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD38" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF38" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>2003</v>
@@ -4931,93 +4984,93 @@
         <v>400</v>
       </c>
       <c r="K39" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q39" t="s">
-        <v>219</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S39" t="s">
-        <v>220</v>
-      </c>
-      <c r="T39" s="5">
+        <v>196</v>
+      </c>
+      <c r="T39" s="1">
         <v>1999</v>
       </c>
       <c r="U39" t="s">
-        <v>220</v>
-      </c>
-      <c r="V39" s="5">
+        <v>196</v>
+      </c>
+      <c r="V39" s="1">
         <v>1999</v>
       </c>
       <c r="W39" t="s">
-        <v>220</v>
-      </c>
-      <c r="X39" s="9">
+        <v>196</v>
+      </c>
+      <c r="X39" s="5">
         <v>1999</v>
       </c>
       <c r="Y39" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA39" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC39" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD39" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF39" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>2004</v>
@@ -5026,93 +5079,93 @@
         <v>400</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O40" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q40" t="s">
-        <v>219</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S40" t="s">
-        <v>220</v>
-      </c>
-      <c r="T40" s="5">
+        <v>196</v>
+      </c>
+      <c r="T40" s="1">
         <v>1998</v>
       </c>
       <c r="U40" t="s">
-        <v>220</v>
-      </c>
-      <c r="V40" s="5">
+        <v>196</v>
+      </c>
+      <c r="V40" s="1">
         <v>1998</v>
       </c>
       <c r="W40" t="s">
-        <v>220</v>
-      </c>
-      <c r="X40" s="9">
+        <v>196</v>
+      </c>
+      <c r="X40" s="5">
         <v>1998</v>
       </c>
       <c r="Y40" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA40" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC40" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD40" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF40" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <v>2004</v>
@@ -5121,93 +5174,93 @@
         <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q41" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R41" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S41" t="s">
-        <v>219</v>
-      </c>
-      <c r="T41" s="5">
+        <v>195</v>
+      </c>
+      <c r="T41" s="1">
         <v>2003</v>
       </c>
       <c r="U41" t="s">
-        <v>220</v>
-      </c>
-      <c r="V41" s="5">
+        <v>196</v>
+      </c>
+      <c r="V41" s="1">
         <v>2003</v>
       </c>
       <c r="W41" t="s">
-        <v>220</v>
-      </c>
-      <c r="X41" s="9">
+        <v>196</v>
+      </c>
+      <c r="X41" s="5">
         <v>2003</v>
       </c>
       <c r="Y41" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z41" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC41" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD41" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF41" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>2004</v>
@@ -5216,93 +5269,93 @@
         <v>279</v>
       </c>
       <c r="K42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M42" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q42" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R42" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S42" t="s">
-        <v>219</v>
-      </c>
-      <c r="T42" s="5">
+        <v>195</v>
+      </c>
+      <c r="T42" s="1">
         <v>2003</v>
       </c>
       <c r="U42" t="s">
-        <v>220</v>
-      </c>
-      <c r="V42" s="5">
+        <v>196</v>
+      </c>
+      <c r="V42" s="1">
         <v>2003</v>
       </c>
       <c r="W42" t="s">
-        <v>220</v>
-      </c>
-      <c r="X42" s="9">
+        <v>196</v>
+      </c>
+      <c r="X42" s="5">
         <v>2003</v>
       </c>
       <c r="Y42" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z42" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC42" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD42" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF42" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>2004</v>
@@ -5311,93 +5364,93 @@
         <v>279</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O43" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q43" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R43" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S43" t="s">
-        <v>219</v>
-      </c>
-      <c r="T43" s="5">
+        <v>195</v>
+      </c>
+      <c r="T43" s="1">
         <v>2003</v>
       </c>
       <c r="U43" t="s">
-        <v>220</v>
-      </c>
-      <c r="V43" s="5">
+        <v>196</v>
+      </c>
+      <c r="V43" s="1">
         <v>2003</v>
       </c>
       <c r="W43" t="s">
-        <v>220</v>
-      </c>
-      <c r="X43" s="9">
+        <v>196</v>
+      </c>
+      <c r="X43" s="5">
         <v>2003</v>
       </c>
       <c r="Y43" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z43" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AA43" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC43" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD43" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF43" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>2004</v>
@@ -5406,93 +5459,93 @@
         <v>279</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q44" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R44" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S44" t="s">
-        <v>219</v>
-      </c>
-      <c r="T44" s="5">
+        <v>195</v>
+      </c>
+      <c r="T44" s="1">
         <v>2001</v>
       </c>
       <c r="U44" t="s">
-        <v>220</v>
-      </c>
-      <c r="V44" s="5">
+        <v>196</v>
+      </c>
+      <c r="V44" s="1">
         <v>2001</v>
       </c>
       <c r="W44" t="s">
-        <v>220</v>
-      </c>
-      <c r="X44" s="9">
+        <v>196</v>
+      </c>
+      <c r="X44" s="5">
         <v>2001</v>
       </c>
       <c r="Y44" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z44" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC44" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD44" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF44" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I45">
         <v>2004</v>
@@ -5501,93 +5554,93 @@
         <v>259</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O45" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q45" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R45" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S45" t="s">
-        <v>219</v>
-      </c>
-      <c r="T45" s="5">
+        <v>195</v>
+      </c>
+      <c r="T45" s="1">
         <v>2001</v>
       </c>
       <c r="U45" t="s">
-        <v>220</v>
-      </c>
-      <c r="V45" s="5">
+        <v>196</v>
+      </c>
+      <c r="V45" s="1">
         <v>2001</v>
       </c>
       <c r="W45" t="s">
-        <v>220</v>
-      </c>
-      <c r="X45" s="9">
+        <v>196</v>
+      </c>
+      <c r="X45" s="5">
         <v>2001</v>
       </c>
       <c r="Y45" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z45" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA45" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC45" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD45" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE45" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF45" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <v>2004</v>
@@ -5596,93 +5649,93 @@
         <v>226</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O46" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q46" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R46" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S46" t="s">
-        <v>219</v>
-      </c>
-      <c r="T46" s="5">
+        <v>195</v>
+      </c>
+      <c r="T46" s="1">
         <v>2001</v>
       </c>
       <c r="U46" t="s">
-        <v>220</v>
-      </c>
-      <c r="V46" s="5">
+        <v>196</v>
+      </c>
+      <c r="V46" s="1">
         <v>2001</v>
       </c>
       <c r="W46" t="s">
-        <v>220</v>
-      </c>
-      <c r="X46" s="9">
+        <v>196</v>
+      </c>
+      <c r="X46" s="5">
         <v>2001</v>
       </c>
       <c r="Y46" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z46" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA46" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC46" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD46" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF46" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I47">
         <v>2005</v>
@@ -5691,93 +5744,93 @@
         <v>414</v>
       </c>
       <c r="K47" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>127</v>
+      </c>
+      <c r="O47" t="s">
         <v>128</v>
       </c>
-      <c r="M47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" t="s">
-        <v>142</v>
-      </c>
-      <c r="O47" t="s">
-        <v>143</v>
-      </c>
       <c r="P47" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q47" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R47" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S47" t="s">
-        <v>219</v>
-      </c>
-      <c r="T47" s="5">
+        <v>195</v>
+      </c>
+      <c r="T47" s="1">
         <v>1997</v>
       </c>
       <c r="U47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V47" s="5">
+        <v>196</v>
+      </c>
+      <c r="V47" s="1">
         <v>1997</v>
       </c>
       <c r="W47" t="s">
-        <v>220</v>
-      </c>
-      <c r="X47" s="9">
+        <v>196</v>
+      </c>
+      <c r="X47" s="5">
         <v>1997</v>
       </c>
       <c r="Y47" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z47" s="5" t="s">
-        <v>73</v>
+        <v>197</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AA47" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC47" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD47" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE47" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="AF47" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>2006</v>
@@ -5786,93 +5839,93 @@
         <v>731</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M48" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O48" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q48" t="s">
-        <v>219</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="T48" s="5">
+        <v>195</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T48" s="1">
         <v>2006</v>
       </c>
       <c r="U48" t="s">
-        <v>220</v>
-      </c>
-      <c r="V48" s="5">
+        <v>196</v>
+      </c>
+      <c r="V48" s="1">
         <v>2006</v>
       </c>
       <c r="W48" t="s">
-        <v>220</v>
-      </c>
-      <c r="X48" s="9">
+        <v>196</v>
+      </c>
+      <c r="X48" s="5">
         <v>2006</v>
       </c>
       <c r="Y48" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z48" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA48" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC48" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD48" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF48" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <v>2006</v>
@@ -5881,93 +5934,93 @@
         <v>722</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q49" t="s">
-        <v>219</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="T49" s="5">
+        <v>195</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T49" s="1">
         <v>2006</v>
       </c>
       <c r="U49" t="s">
-        <v>220</v>
-      </c>
-      <c r="V49" s="5">
+        <v>196</v>
+      </c>
+      <c r="V49" s="1">
         <v>2006</v>
       </c>
       <c r="W49" t="s">
-        <v>220</v>
-      </c>
-      <c r="X49" s="9">
+        <v>196</v>
+      </c>
+      <c r="X49" s="5">
         <v>2006</v>
       </c>
       <c r="Y49" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z49" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA49" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC49" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD49" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF49" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>2006</v>
@@ -5976,93 +6029,93 @@
         <v>724</v>
       </c>
       <c r="K50" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M50" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P50" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q50" t="s">
-        <v>219</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="T50" s="5">
+        <v>195</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T50" s="1">
         <v>2007</v>
       </c>
       <c r="U50" t="s">
-        <v>220</v>
-      </c>
-      <c r="V50" s="5">
+        <v>196</v>
+      </c>
+      <c r="V50" s="1">
         <v>2007</v>
       </c>
       <c r="W50" t="s">
-        <v>220</v>
-      </c>
-      <c r="X50" s="9">
+        <v>196</v>
+      </c>
+      <c r="X50" s="5">
         <v>2007</v>
       </c>
       <c r="Y50" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z50" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA50" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC50" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD50" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF50" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>2006</v>
@@ -6071,93 +6124,93 @@
         <v>723</v>
       </c>
       <c r="K51" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q51" t="s">
-        <v>219</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="T51" s="5">
+        <v>195</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T51" s="1">
         <v>2008</v>
       </c>
       <c r="U51" t="s">
-        <v>220</v>
-      </c>
-      <c r="V51" s="5">
+        <v>196</v>
+      </c>
+      <c r="V51" s="1">
         <v>2008</v>
       </c>
       <c r="W51" t="s">
-        <v>220</v>
-      </c>
-      <c r="X51" s="9">
+        <v>196</v>
+      </c>
+      <c r="X51" s="5">
         <v>2008</v>
       </c>
       <c r="Y51" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z51" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AA51" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC51" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD51" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF51" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>2012</v>
@@ -6166,96 +6219,96 @@
         <v>1575</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N52" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="P52" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R52" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S52" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T52" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U52" t="s">
-        <v>219</v>
-      </c>
-      <c r="V52" s="5">
+        <v>195</v>
+      </c>
+      <c r="V52" s="1">
         <v>2001</v>
       </c>
       <c r="W52" t="s">
-        <v>220</v>
-      </c>
-      <c r="X52" s="9">
+        <v>196</v>
+      </c>
+      <c r="X52" s="5">
         <v>2009</v>
       </c>
       <c r="Y52" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z52" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA52" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC52" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD52" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE52" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AF52" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG52" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>2013</v>
@@ -6264,93 +6317,93 @@
         <v>1572</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L53" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X53">
         <v>2013</v>
       </c>
       <c r="Y53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z53" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC53" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD53" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I54">
         <v>2005</v>
@@ -6359,93 +6412,93 @@
         <v>1171</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L54" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O54" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="P54" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T54" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V54" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="W54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X54">
         <v>2005</v>
       </c>
       <c r="Y54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC54" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD54" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF54" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H55" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I55">
         <v>2005</v>
@@ -6454,93 +6507,93 @@
         <v>1175</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L55" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O55" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P55" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T55" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V55" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="W55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X55">
         <v>2005</v>
       </c>
       <c r="Y55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC55" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD55" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF55" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I56">
         <v>2005</v>
@@ -6549,93 +6602,93 @@
         <v>1194</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L56" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="P56" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T56" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V56" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="W56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X56">
         <v>2005</v>
       </c>
       <c r="Y56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC56" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD56" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE56" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF56" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I57">
         <v>2005</v>
@@ -6644,93 +6697,93 @@
         <v>1189</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L57" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O57" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T57" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V57" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="W57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X57">
         <v>2005</v>
       </c>
       <c r="Y57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC57" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD57" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF57" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>2013</v>
@@ -6739,96 +6792,96 @@
         <v>1572</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L58" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="R58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="T58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X58">
         <v>2013</v>
       </c>
       <c r="Y58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z58" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AA58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC58" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD58" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF58" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I59">
         <v>2012</v>
@@ -6837,96 +6890,96 @@
         <v>528</v>
       </c>
       <c r="K59" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L59" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M59" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s">
-        <v>175</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>214</v>
+        <v>160</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="S59" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="T59" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="U59" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V59" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="W59" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X59">
         <v>2012</v>
       </c>
       <c r="Y59" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z59" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AA59" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC59" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD59" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF59" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG59" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H60" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I60">
         <v>2012</v>
@@ -6935,96 +6988,96 @@
         <v>586</v>
       </c>
       <c r="K60" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M60" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O60" t="s">
-        <v>177</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>41</v>
+        <v>162</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="Q60" t="s">
-        <v>220</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="S60" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="T60" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="U60" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="V60" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="W60" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X60">
         <v>2012</v>
       </c>
       <c r="Y60" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Z60" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA60" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC60" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD60" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF60" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG60" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I61">
         <v>2016</v>
@@ -7033,96 +7086,96 @@
         <v>1350</v>
       </c>
       <c r="K61" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
-        <v>180</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>19</v>
+        <v>165</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Q61" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T61" s="5">
+        <v>195</v>
+      </c>
+      <c r="T61" s="1">
         <v>2001</v>
       </c>
       <c r="U61" t="s">
-        <v>220</v>
-      </c>
-      <c r="V61" s="5">
+        <v>196</v>
+      </c>
+      <c r="V61" s="1">
         <v>2001</v>
       </c>
       <c r="W61" t="s">
-        <v>220</v>
-      </c>
-      <c r="X61" s="9">
+        <v>196</v>
+      </c>
+      <c r="X61" s="5">
         <v>2001</v>
       </c>
       <c r="Y61" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z61" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA61" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC61" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD61" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF61" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG61" s="8" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="AG61" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>2016</v>
@@ -7131,96 +7184,96 @@
         <v>1350</v>
       </c>
       <c r="K62" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L62" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O62" t="s">
-        <v>182</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>41</v>
+        <v>167</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="Q62" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S62" t="s">
-        <v>219</v>
-      </c>
-      <c r="T62" s="5">
+        <v>195</v>
+      </c>
+      <c r="T62" s="1">
         <v>2004</v>
       </c>
       <c r="U62" t="s">
-        <v>220</v>
-      </c>
-      <c r="V62" s="5">
+        <v>196</v>
+      </c>
+      <c r="V62" s="1">
         <v>2004</v>
       </c>
       <c r="W62" t="s">
-        <v>220</v>
-      </c>
-      <c r="X62" s="9">
+        <v>196</v>
+      </c>
+      <c r="X62" s="5">
         <v>2004</v>
       </c>
       <c r="Y62" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z62" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA62" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC62" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD62" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF62" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG62" s="8" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>2016</v>
@@ -7229,96 +7282,96 @@
         <v>1350</v>
       </c>
       <c r="K63" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>184</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>41</v>
+        <v>169</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="Q63" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S63" t="s">
-        <v>219</v>
-      </c>
-      <c r="T63" s="5">
+        <v>195</v>
+      </c>
+      <c r="T63" s="1">
         <v>1997</v>
       </c>
       <c r="U63" t="s">
-        <v>220</v>
-      </c>
-      <c r="V63" s="5">
+        <v>196</v>
+      </c>
+      <c r="V63" s="1">
         <v>1997</v>
       </c>
       <c r="W63" t="s">
-        <v>220</v>
-      </c>
-      <c r="X63" s="9">
+        <v>196</v>
+      </c>
+      <c r="X63" s="5">
         <v>1997</v>
       </c>
       <c r="Y63" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="Z63" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AA63" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AC63" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD63" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF63" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG63" s="8" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>1995</v>
@@ -7327,75 +7380,91 @@
         <v>400</v>
       </c>
       <c r="K64" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="O64" t="s">
-        <v>188</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>19</v>
+        <v>173</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Q64" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S64" t="s">
-        <v>219</v>
-      </c>
-      <c r="T64" s="5">
+        <v>195</v>
+      </c>
+      <c r="T64" s="1">
         <v>1986</v>
       </c>
-      <c r="U64" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V64" s="5">
+      <c r="U64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V64" s="1">
         <v>1986</v>
       </c>
-      <c r="W64" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="X64" s="9">
+      <c r="W64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X64" s="5">
         <v>1986</v>
       </c>
-      <c r="Y64" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z64" s="5" t="s">
-        <v>207</v>
+      <c r="Y64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AA64" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AC64" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AD64" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AE64" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AF64" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:AF1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P2:AF1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"filled in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1 S1 U1 W1 Y1 AA1 AF1">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"filled in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
